--- a/BackTest/2019-10-24 BackTest MIX.xlsx
+++ b/BackTest/2019-10-24 BackTest MIX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2700000000000014</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-3.703703703703606</v>
+      </c>
       <c r="L12" t="n">
         <v>8.055</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2700000000000014</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-7.692307692307482</v>
+      </c>
       <c r="L13" t="n">
         <v>8.053999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-11.11111111111082</v>
+      </c>
       <c r="L14" t="n">
         <v>8.050999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.330000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-24.99999999999965</v>
+      </c>
       <c r="L15" t="n">
         <v>8.042999999999997</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3600000000000012</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-42.85714285714241</v>
+      </c>
       <c r="L16" t="n">
         <v>8.037999999999997</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3600000000000012</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-19.99999999999947</v>
+      </c>
       <c r="L17" t="n">
         <v>8.025999999999996</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.3600000000000012</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-59.99999999999977</v>
+      </c>
       <c r="L18" t="n">
         <v>8.021999999999995</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.3900000000000015</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-66.6666666666665</v>
+      </c>
       <c r="L19" t="n">
         <v>8.009999999999994</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.3900000000000015</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-66.6666666666665</v>
+      </c>
       <c r="L20" t="n">
         <v>7.997999999999995</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.4500000000000011</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>7.991999999999995</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5300000000000002</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-30.76923076923059</v>
+      </c>
       <c r="L22" t="n">
         <v>7.983999999999995</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5500000000000007</v>
       </c>
       <c r="K23" t="n">
-        <v>-19.99999999999987</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>7.973999999999995</v>
@@ -1466,7 +1488,7 @@
         <v>0.5500000000000007</v>
       </c>
       <c r="K24" t="n">
-        <v>-22.22222222222204</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L24" t="n">
         <v>7.964999999999995</v>
@@ -1515,7 +1537,7 @@
         <v>0.5500000000000007</v>
       </c>
       <c r="K25" t="n">
-        <v>-22.22222222222204</v>
+        <v>-36.84210526315815</v>
       </c>
       <c r="L25" t="n">
         <v>7.960999999999996</v>
@@ -1564,7 +1586,7 @@
         <v>0.6900000000000013</v>
       </c>
       <c r="K26" t="n">
-        <v>2.941176470588427</v>
+        <v>21.21212121212129</v>
       </c>
       <c r="L26" t="n">
         <v>7.967999999999996</v>
@@ -1613,7 +1635,7 @@
         <v>0.8200000000000021</v>
       </c>
       <c r="K27" t="n">
-        <v>-24.32432432432422</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L27" t="n">
         <v>7.961999999999996</v>
@@ -1662,7 +1684,7 @@
         <v>0.8400000000000025</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.76470588235278</v>
+        <v>-2.222222222222169</v>
       </c>
       <c r="L28" t="n">
         <v>7.957999999999997</v>
@@ -1711,7 +1733,7 @@
         <v>0.9700000000000024</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>20.68965517241378</v>
       </c>
       <c r="L29" t="n">
         <v>7.969999999999997</v>
@@ -1760,7 +1782,7 @@
         <v>1.080000000000003</v>
       </c>
       <c r="K30" t="n">
-        <v>-12.64367816091955</v>
+        <v>-7.936507936507888</v>
       </c>
       <c r="L30" t="n">
         <v>7.970999999999998</v>
@@ -1809,7 +1831,7 @@
         <v>1.090000000000003</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.63636363636362</v>
+        <v>3.571428571428481</v>
       </c>
       <c r="L31" t="n">
         <v>7.964999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>1.140000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-12.64367816091946</v>
+        <v>-1.694915254237247</v>
       </c>
       <c r="L32" t="n">
         <v>7.961999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>1.140000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-12.64367816091946</v>
+        <v>-1.694915254237247</v>
       </c>
       <c r="L33" t="n">
         <v>7.960999999999997</v>
@@ -1962,7 +1984,7 @@
         <v>1.150000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>-12.64367816091946</v>
+        <v>-3.333333333333254</v>
       </c>
       <c r="L34" t="n">
         <v>7.958999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.180000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-10.58823529411761</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L35" t="n">
         <v>7.953999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.250000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>-21.34831460674158</v>
+        <v>-30.23255813953482</v>
       </c>
       <c r="L36" t="n">
         <v>7.927999999999997</v>
@@ -2115,7 +2137,7 @@
         <v>1.320000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>-27.08333333333329</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>7.907999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.390000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>-32.03883495145628</v>
+        <v>-100</v>
       </c>
       <c r="L38" t="n">
         <v>7.878999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>1.420000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-26.21359223300963</v>
+        <v>-82.35294117647044</v>
       </c>
       <c r="L39" t="n">
         <v>7.839999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>1.440000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>-23.8095238095238</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L40" t="n">
         <v>7.813999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>1.460000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>-28.71287128712858</v>
+        <v>-56.24999999999986</v>
       </c>
       <c r="L41" t="n">
         <v>7.790999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>1.750000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>6.557377049180253</v>
+        <v>18.03278688524582</v>
       </c>
       <c r="L42" t="n">
         <v>7.801999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>2.020000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-11.56462585034013</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L43" t="n">
         <v>7.785999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>2.070000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.894736842105268</v>
+        <v>-7.865168539325886</v>
       </c>
       <c r="L44" t="n">
         <v>7.775999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>2.260000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>4.093567251462003</v>
+        <v>18.81188118811887</v>
       </c>
       <c r="L45" t="n">
         <v>7.787999999999997</v>
@@ -2574,7 +2596,7 @@
         <v>2.300000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>-6.832298136645981</v>
+        <v>22.44897959183672</v>
       </c>
       <c r="L46" t="n">
         <v>7.802999999999997</v>
@@ -2625,7 +2647,7 @@
         <v>2.340000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>3.947368421052665</v>
+        <v>34.73684210526319</v>
       </c>
       <c r="L47" t="n">
         <v>7.828999999999996</v>
@@ -2676,7 +2698,7 @@
         <v>2.480000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.09756097560979</v>
+        <v>15.09433962264145</v>
       </c>
       <c r="L48" t="n">
         <v>7.847999999999996</v>
@@ -2727,7 +2749,7 @@
         <v>2.590000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.407407407407414</v>
+        <v>21.7391304347826</v>
       </c>
       <c r="L49" t="n">
         <v>7.874999999999996</v>
@@ -2778,7 +2800,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.407407407407414</v>
+        <v>9.677419354838646</v>
       </c>
       <c r="L50" t="n">
         <v>7.888999999999996</v>
@@ -2829,7 +2851,7 @@
         <v>2.710000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.172839506172814</v>
+        <v>-16.66666666666656</v>
       </c>
       <c r="L51" t="n">
         <v>7.901999999999996</v>
@@ -2880,7 +2902,7 @@
         <v>2.720000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>-2.531645569620254</v>
+        <v>17.14285714285711</v>
       </c>
       <c r="L52" t="n">
         <v>7.886999999999996</v>
@@ -2931,7 +2953,7 @@
         <v>2.800000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>2.409638554216868</v>
+        <v>20.54794520547944</v>
       </c>
       <c r="L53" t="n">
         <v>7.906999999999996</v>
@@ -2982,7 +3004,7 @@
         <v>2.910000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.409090909090934</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L54" t="n">
         <v>7.910999999999997</v>
@@ -3033,7 +3055,7 @@
         <v>2.920000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.149425287356348</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L55" t="n">
         <v>7.896999999999997</v>
@@ -3084,7 +3106,7 @@
         <v>3.050000000000004</v>
       </c>
       <c r="K56" t="n">
-        <v>10.00000000000002</v>
+        <v>-1.408450704225317</v>
       </c>
       <c r="L56" t="n">
         <v>7.899999999999997</v>
@@ -3135,7 +3157,7 @@
         <v>3.050000000000004</v>
       </c>
       <c r="K57" t="n">
-        <v>14.4508670520231</v>
+        <v>22.8070175438597</v>
       </c>
       <c r="L57" t="n">
         <v>7.898999999999998</v>
@@ -3186,7 +3208,7 @@
         <v>3.050000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>19.27710843373493</v>
+        <v>4.347826086956606</v>
       </c>
       <c r="L58" t="n">
         <v>7.911999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>3.050000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>17.79141104294477</v>
+        <v>37.14285714285722</v>
       </c>
       <c r="L59" t="n">
         <v>7.914</v>
@@ -3288,7 +3310,7 @@
         <v>3.190000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>7.428571428571411</v>
+        <v>-4.166666666666751</v>
       </c>
       <c r="L60" t="n">
         <v>7.913000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>3.200000000000005</v>
       </c>
       <c r="K61" t="n">
-        <v>5.747126436781582</v>
+        <v>-8.333333333333318</v>
       </c>
       <c r="L61" t="n">
         <v>7.910000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>3.230000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.86486486486482</v>
+        <v>-34.88372093023252</v>
       </c>
       <c r="L62" t="n">
         <v>7.903</v>
@@ -3441,7 +3463,7 @@
         <v>3.400000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>15.94202898550719</v>
+        <v>26.53061224489788</v>
       </c>
       <c r="L63" t="n">
         <v>7.904999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>3.450000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>8.695652173913029</v>
+        <v>13.20754716981135</v>
       </c>
       <c r="L64" t="n">
         <v>7.912999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.510000000000004</v>
       </c>
       <c r="K65" t="n">
-        <v>-10.39999999999997</v>
+        <v>-26.08695652173916</v>
       </c>
       <c r="L65" t="n">
         <v>7.914</v>
@@ -3594,7 +3616,7 @@
         <v>3.520000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>-6.557377049180321</v>
+        <v>-23.40425531914902</v>
       </c>
       <c r="L66" t="n">
         <v>7.903</v>
@@ -3645,7 +3667,7 @@
         <v>3.570000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.691056910569118</v>
+        <v>-11.53846153846164</v>
       </c>
       <c r="L67" t="n">
         <v>7.897</v>
@@ -3696,7 +3718,7 @@
         <v>3.610000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>2.654867256637186</v>
+        <v>-17.85714285714296</v>
       </c>
       <c r="L68" t="n">
         <v>7.886999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>3.690000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>24.00000000000006</v>
       </c>
       <c r="L69" t="n">
         <v>7.884999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>3.690000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111113</v>
+        <v>26.53061224489797</v>
       </c>
       <c r="L70" t="n">
         <v>7.896999999999997</v>
@@ -3849,7 +3871,7 @@
         <v>3.700000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111105</v>
+        <v>36.17021276595752</v>
       </c>
       <c r="L71" t="n">
         <v>7.910999999999997</v>
@@ -3900,7 +3922,7 @@
         <v>3.710000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>9.090909090909074</v>
+        <v>-3.225806451612848</v>
       </c>
       <c r="L72" t="n">
         <v>7.926999999999997</v>
@@ -3951,7 +3973,7 @@
         <v>3.720000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>2.173913043478215</v>
+        <v>18.51851851851854</v>
       </c>
       <c r="L73" t="n">
         <v>7.926999999999997</v>
@@ -4002,7 +4024,7 @@
         <v>3.730000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>14.63414634146344</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L74" t="n">
         <v>7.930999999999996</v>
@@ -4053,7 +4075,7 @@
         <v>3.770000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>17.64705882352946</v>
+        <v>52.00000000000015</v>
       </c>
       <c r="L75" t="n">
         <v>7.944999999999996</v>
@@ -4104,7 +4126,7 @@
         <v>3.820000000000004</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909133</v>
+        <v>52.00000000000031</v>
       </c>
       <c r="L76" t="n">
         <v>7.962999999999996</v>
@@ -4155,7 +4177,7 @@
         <v>3.830000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>7.692307692307517</v>
+        <v>72.72727272727188</v>
       </c>
       <c r="L77" t="n">
         <v>7.974999999999996</v>
@@ -4206,7 +4228,7 @@
         <v>3.910000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>-2.32558139534889</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>7.982999999999995</v>
@@ -4257,7 +4279,7 @@
         <v>4.000000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>7.3684210526316</v>
+        <v>29.03225806451624</v>
       </c>
       <c r="L79" t="n">
         <v>7.991999999999996</v>
@@ -4308,7 +4330,7 @@
         <v>4.000000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>25.92592592592601</v>
+        <v>26.66666666666685</v>
       </c>
       <c r="L80" t="n">
         <v>8.000999999999996</v>
@@ -4359,7 +4381,7 @@
         <v>4.060000000000006</v>
       </c>
       <c r="K81" t="n">
-        <v>18.60465116279069</v>
+        <v>8.571428571428585</v>
       </c>
       <c r="L81" t="n">
         <v>8.002999999999997</v>
@@ -4410,7 +4432,7 @@
         <v>4.130000000000006</v>
       </c>
       <c r="K82" t="n">
-        <v>28.88888888888892</v>
+        <v>21.95121951219515</v>
       </c>
       <c r="L82" t="n">
         <v>8.012999999999996</v>
@@ -4461,7 +4483,7 @@
         <v>4.150000000000006</v>
       </c>
       <c r="K83" t="n">
-        <v>14.66666666666669</v>
+        <v>28.57142857142842</v>
       </c>
       <c r="L83" t="n">
         <v>8.023999999999997</v>
@@ -4512,7 +4534,7 @@
         <v>4.150000000000006</v>
       </c>
       <c r="K84" t="n">
-        <v>22.85714285714284</v>
+        <v>21.05263157894725</v>
       </c>
       <c r="L84" t="n">
         <v>8.035999999999998</v>
@@ -4563,7 +4585,7 @@
         <v>4.280000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>45.45454545454539</v>
+        <v>34.78260869565201</v>
       </c>
       <c r="L85" t="n">
         <v>8.056999999999997</v>
@@ -4614,7 +4636,7 @@
         <v>4.280000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>44.73684210526311</v>
+        <v>37.77777777777806</v>
       </c>
       <c r="L86" t="n">
         <v>8.072999999999997</v>
@@ -4665,7 +4687,7 @@
         <v>4.280000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>40.84507042253519</v>
+        <v>67.56756756756747</v>
       </c>
       <c r="L87" t="n">
         <v>8.089999999999998</v>
@@ -4716,7 +4738,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>50.72463768115934</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L88" t="n">
         <v>8.116999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K89" t="n">
-        <v>44.26229508196713</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L89" t="n">
         <v>8.135</v>
@@ -4818,7 +4840,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K90" t="n">
-        <v>44.26229508196713</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>8.153</v>
@@ -4869,7 +4891,7 @@
         <v>4.350000000000007</v>
       </c>
       <c r="K91" t="n">
-        <v>32.30769230769216</v>
+        <v>54.54545454545403</v>
       </c>
       <c r="L91" t="n">
         <v>8.172000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>4.350000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>34.37499999999979</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L92" t="n">
         <v>8.184000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>4.400000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>38.23529411764692</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L93" t="n">
         <v>8.199000000000002</v>
@@ -5022,7 +5044,7 @@
         <v>4.440000000000007</v>
       </c>
       <c r="K94" t="n">
-        <v>43.66197183098565</v>
+        <v>37.49999999999917</v>
       </c>
       <c r="L94" t="n">
         <v>8.218</v>
@@ -5073,7 +5095,7 @@
         <v>4.440000000000007</v>
       </c>
       <c r="K95" t="n">
-        <v>40.2985074626863</v>
+        <v>37.49999999999917</v>
       </c>
       <c r="L95" t="n">
         <v>8.224</v>
@@ -5124,7 +5146,7 @@
         <v>4.450000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>36.50793650793614</v>
+        <v>41.17647058823443</v>
       </c>
       <c r="L96" t="n">
         <v>8.231</v>
@@ -5175,7 +5197,7 @@
         <v>4.450000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>38.70967741935481</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L97" t="n">
         <v>8.238</v>
@@ -5226,7 +5248,7 @@
         <v>4.450000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>59.25925925925895</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L98" t="n">
         <v>8.242999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>4.460000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>52.17391304347782</v>
+        <v>37.49999999999917</v>
       </c>
       <c r="L99" t="n">
         <v>8.248999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>4.540000000000004</v>
       </c>
       <c r="K100" t="n">
-        <v>29.6296296296297</v>
+        <v>15.78947368421131</v>
       </c>
       <c r="L100" t="n">
         <v>8.246999999999998</v>
@@ -5379,7 +5401,7 @@
         <v>4.620000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>53.57142857142867</v>
+        <v>40.74074074074113</v>
       </c>
       <c r="L101" t="n">
         <v>8.257999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>4.650000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>38.46153846153862</v>
+        <v>12</v>
       </c>
       <c r="L102" t="n">
         <v>8.266</v>
@@ -5481,7 +5503,7 @@
         <v>4.730000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>17.24137931034487</v>
+        <v>-31.03448275862111</v>
       </c>
       <c r="L103" t="n">
         <v>8.260999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>4.790000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>6.249999999999896</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L104" t="n">
         <v>8.246</v>
@@ -5583,7 +5605,7 @@
         <v>4.900000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>-32.25806451612943</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L105" t="n">
         <v>8.220000000000002</v>
@@ -5634,7 +5656,7 @@
         <v>4.910000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>-30.15873015873058</v>
+        <v>-56.52173913043529</v>
       </c>
       <c r="L106" t="n">
         <v>8.194000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>4.920000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>-28.12500000000044</v>
+        <v>-53.19148936170266</v>
       </c>
       <c r="L107" t="n">
         <v>8.169</v>
@@ -5736,7 +5758,7 @@
         <v>5.040000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>-10.81081081081087</v>
+        <v>-24.1379310344827</v>
       </c>
       <c r="L108" t="n">
         <v>8.156000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>5.040000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>-10.81081081081087</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L109" t="n">
         <v>8.142000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>5.050000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-12.00000000000004</v>
+        <v>-34.88372093023225</v>
       </c>
       <c r="L110" t="n">
         <v>8.135000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>5.180000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>-20.48192771084345</v>
+        <v>-47.16981132075462</v>
       </c>
       <c r="L111" t="n">
         <v>8.107000000000003</v>
@@ -5940,7 +5962,7 @@
         <v>5.190000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>-21.42857142857149</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L112" t="n">
         <v>8.081000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>5.290000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>-37.07865168539347</v>
+        <v>-43.99999999999977</v>
       </c>
       <c r="L113" t="n">
         <v>8.053000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>5.290000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>-43.52941176470599</v>
+        <v>-28.20512820512802</v>
       </c>
       <c r="L114" t="n">
         <v>8.031000000000002</v>
@@ -6093,7 +6115,7 @@
         <v>5.310000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>-44.82758620689669</v>
+        <v>-34.99999999999981</v>
       </c>
       <c r="L115" t="n">
         <v>8.018000000000002</v>
@@ -6144,7 +6166,7 @@
         <v>5.320000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-44.82758620689669</v>
+        <v>-34.99999999999981</v>
       </c>
       <c r="L116" t="n">
         <v>8.005000000000003</v>
@@ -6195,7 +6217,7 @@
         <v>5.350000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>-40.00000000000008</v>
+        <v>-74.1935483870968</v>
       </c>
       <c r="L117" t="n">
         <v>7.994000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>5.370000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>-41.30434782608701</v>
+        <v>-75.75757575757575</v>
       </c>
       <c r="L118" t="n">
         <v>7.969000000000003</v>
@@ -6297,7 +6319,7 @@
         <v>5.450000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>-31.31313131313129</v>
+        <v>-40</v>
       </c>
       <c r="L119" t="n">
         <v>7.952000000000003</v>
@@ -6348,7 +6370,7 @@
         <v>5.490000000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>-28.42105263157904</v>
+        <v>-22.58064516129016</v>
       </c>
       <c r="L120" t="n">
         <v>7.932000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>5.500000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>-38.63636363636353</v>
+        <v>-16.12903225806448</v>
       </c>
       <c r="L121" t="n">
         <v>7.926000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>5.570000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>-26.08695652173916</v>
+        <v>42.85714285714268</v>
       </c>
       <c r="L122" t="n">
         <v>7.928000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>5.630000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-24.44444444444443</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L123" t="n">
         <v>7.934</v>
@@ -6552,7 +6574,7 @@
         <v>5.640000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>-19.99999999999991</v>
+        <v>21.21212121212141</v>
       </c>
       <c r="L124" t="n">
         <v>7.939</v>
@@ -6603,7 +6625,7 @@
         <v>5.640000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>-8.108108108108063</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L125" t="n">
         <v>7.946000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>5.640000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-9.589041095890334</v>
+        <v>10.34482758620704</v>
       </c>
       <c r="L126" t="n">
         <v>7.952000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>5.650000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-12.32876712328754</v>
+        <v>14.28571428571438</v>
       </c>
       <c r="L127" t="n">
         <v>7.954000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>5.660000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-35.48387096774208</v>
+        <v>-23.80952380952425</v>
       </c>
       <c r="L128" t="n">
         <v>7.956999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>5.670000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>7.952999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>5.700000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-26.1538461538463</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L130" t="n">
         <v>7.955999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>5.710000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>-5.660377358490452</v>
+        <v>-28.57142857142785</v>
       </c>
       <c r="L131" t="n">
         <v>7.958999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>5.730000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L132" t="n">
         <v>7.956999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>5.760000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>27.65957446808496</v>
+        <v>66.66666666666593</v>
       </c>
       <c r="L133" t="n">
         <v>7.964</v>
@@ -7062,7 +7084,7 @@
         <v>5.830000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>11.11111111111108</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L134" t="n">
         <v>7.964999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>5.840000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>13.20754716981143</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>7.964999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>5.860000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>7.407407407407438</v>
+        <v>-4.761904761905084</v>
       </c>
       <c r="L136" t="n">
         <v>7.962999999999998</v>
@@ -7215,7 +7237,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L137" t="n">
         <v>7.960999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>3.999999999999929</v>
+        <v>-10.00000000000031</v>
       </c>
       <c r="L138" t="n">
         <v>7.959999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>-14.28571428571447</v>
+        <v>-29.41176470588242</v>
       </c>
       <c r="L139" t="n">
         <v>7.958</v>
@@ -7368,7 +7390,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.26315789473699</v>
+        <v>-37.5000000000007</v>
       </c>
       <c r="L140" t="n">
         <v>7.953</v>
@@ -7419,7 +7441,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>-8.108108108108212</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L141" t="n">
         <v>7.947</v>
@@ -7470,7 +7492,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L142" t="n">
         <v>7.939</v>
@@ -7521,7 +7543,7 @@
         <v>5.880000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>-12.00000000000014</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L143" t="n">
         <v>7.928999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>5.950000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>16.12903225806448</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L144" t="n">
         <v>7.933</v>
@@ -7623,7 +7645,7 @@
         <v>5.98</v>
       </c>
       <c r="K145" t="n">
-        <v>23.52941176470571</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L145" t="n">
         <v>7.941</v>
@@ -7674,7 +7696,7 @@
         <v>6.18</v>
       </c>
       <c r="K146" t="n">
-        <v>-22.22222222222231</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L146" t="n">
         <v>7.931</v>
@@ -7725,7 +7747,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>-16.36363636363656</v>
+        <v>-21.21212121212141</v>
       </c>
       <c r="L147" t="n">
         <v>7.923999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.8148148148149</v>
+        <v>-21.21212121212141</v>
       </c>
       <c r="L148" t="n">
         <v>7.916999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>6.21</v>
       </c>
       <c r="K149" t="n">
-        <v>-14.8148148148149</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L149" t="n">
         <v>7.910999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>6.22</v>
       </c>
       <c r="K150" t="n">
-        <v>-19.23076923076924</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>7.905999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>6.26</v>
       </c>
       <c r="K151" t="n">
-        <v>-27.27272727272748</v>
+        <v>-23.07692307692311</v>
       </c>
       <c r="L151" t="n">
         <v>7.896999999999998</v>
@@ -7980,7 +8002,7 @@
         <v>6.27</v>
       </c>
       <c r="K152" t="n">
-        <v>-29.6296296296298</v>
+        <v>-23.07692307692311</v>
       </c>
       <c r="L152" t="n">
         <v>7.888999999999998</v>
@@ -8031,7 +8053,7 @@
         <v>6.31</v>
       </c>
       <c r="K153" t="n">
-        <v>-41.81818181818188</v>
+        <v>-55.55555555555583</v>
       </c>
       <c r="L153" t="n">
         <v>7.875999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>6.319999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-34.6938775510205</v>
+        <v>-70.58823529411767</v>
       </c>
       <c r="L154" t="n">
         <v>7.855</v>
@@ -8133,7 +8155,7 @@
         <v>6.34</v>
       </c>
       <c r="K155" t="n">
-        <v>-36.00000000000018</v>
+        <v>-37.50000000000028</v>
       </c>
       <c r="L155" t="n">
         <v>7.828999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>6.390000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>-20.75471698113199</v>
+        <v>-15.78947368421008</v>
       </c>
       <c r="L156" t="n">
         <v>7.827999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>6.390000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>-19.23076923076918</v>
+        <v>-15.78947368421008</v>
       </c>
       <c r="L157" t="n">
         <v>7.825</v>
@@ -8286,7 +8308,7 @@
         <v>6.400000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>-20.75471698113213</v>
+        <v>-26.31578947368441</v>
       </c>
       <c r="L158" t="n">
         <v>7.821000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>6.400000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>-20.75471698113213</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>7.816000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>6.410000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-18.51851851851842</v>
+        <v>-6.666666666666429</v>
       </c>
       <c r="L160" t="n">
         <v>7.811000000000002</v>
@@ -8439,7 +8461,7 @@
         <v>6.420000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-16.36363636363632</v>
+        <v>-6.666666666666429</v>
       </c>
       <c r="L161" t="n">
         <v>7.811000000000002</v>
@@ -8490,7 +8512,7 @@
         <v>6.460000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-8.4745762711864</v>
+        <v>46.6666666666662</v>
       </c>
       <c r="L162" t="n">
         <v>7.814000000000002</v>
@@ -8541,7 +8563,7 @@
         <v>6.560000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>5.88235294117647</v>
+        <v>74.99999999999926</v>
       </c>
       <c r="L163" t="n">
         <v>7.831000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>6.560000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>-4.918032786885284</v>
+        <v>90.90909090909037</v>
       </c>
       <c r="L164" t="n">
         <v>7.849000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>6.560000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>-10.34482758620681</v>
+        <v>88.23529411764632</v>
       </c>
       <c r="L165" t="n">
         <v>7.869000000000002</v>
@@ -8694,7 +8716,7 @@
         <v>6.560000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>36.84210526315765</v>
+        <v>88.23529411764632</v>
       </c>
       <c r="L166" t="n">
         <v>7.884</v>
@@ -8745,7 +8767,7 @@
         <v>6.620000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>14.28571428571435</v>
+        <v>45.45454545454574</v>
       </c>
       <c r="L167" t="n">
         <v>7.893000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>6.680000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L168" t="n">
         <v>7.897</v>
@@ -8847,7 +8869,7 @@
         <v>6.720000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>5.882352941176327</v>
+        <v>22.58064516129016</v>
       </c>
       <c r="L169" t="n">
         <v>7.904999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>6.730000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>1.960784313725442</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L170" t="n">
         <v>7.910999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>6.730000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>10.63829787234035</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L171" t="n">
         <v>7.915999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>6.740000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>6.382978723404288</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L172" t="n">
         <v>7.915999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>6.740000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>16.27906976744187</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L173" t="n">
         <v>7.905999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>6.740000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>19.04761904761899</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L174" t="n">
         <v>7.895999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>6.760000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>28.57142857142854</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L175" t="n">
         <v>7.888</v>
@@ -9204,7 +9226,7 @@
         <v>6.78</v>
       </c>
       <c r="K176" t="n">
-        <v>12.82051282051279</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L176" t="n">
         <v>7.878</v>
@@ -9255,7 +9277,7 @@
         <v>6.78</v>
       </c>
       <c r="K177" t="n">
-        <v>12.82051282051279</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L177" t="n">
         <v>7.874000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>6.83</v>
       </c>
       <c r="K178" t="n">
-        <v>25.58139534883735</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L178" t="n">
         <v>7.881000000000002</v>
@@ -9357,7 +9379,7 @@
         <v>6.83</v>
       </c>
       <c r="K179" t="n">
-        <v>25.58139534883735</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L179" t="n">
         <v>7.884000000000002</v>
@@ -9408,7 +9430,7 @@
         <v>6.83</v>
       </c>
       <c r="K180" t="n">
-        <v>23.80952380952383</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L180" t="n">
         <v>7.888000000000003</v>
@@ -9459,7 +9481,7 @@
         <v>6.850000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>25.58139534883735</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L181" t="n">
         <v>7.894000000000003</v>
@@ -9510,7 +9532,7 @@
         <v>6.88</v>
       </c>
       <c r="K182" t="n">
-        <v>23.80952380952383</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L182" t="n">
         <v>7.904000000000002</v>
@@ -9561,7 +9583,7 @@
         <v>6.989999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>-25.5813953488372</v>
+        <v>-3.999999999999943</v>
       </c>
       <c r="L183" t="n">
         <v>7.903000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>7.01</v>
       </c>
       <c r="K184" t="n">
-        <v>-28.88888888888897</v>
+        <v>-20</v>
       </c>
       <c r="L184" t="n">
         <v>7.900000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>7.02</v>
       </c>
       <c r="K185" t="n">
-        <v>-30.43478260869571</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L185" t="n">
         <v>7.894000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>7.02</v>
       </c>
       <c r="K186" t="n">
-        <v>-30.43478260869571</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L186" t="n">
         <v>7.890000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>7.02</v>
       </c>
       <c r="K187" t="n">
-        <v>-20.00000000000009</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L187" t="n">
         <v>7.886</v>
@@ -9816,7 +9838,7 @@
         <v>7.09</v>
       </c>
       <c r="K188" t="n">
-        <v>12.19512195121973</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L188" t="n">
         <v>7.884</v>
@@ -9867,7 +9889,7 @@
         <v>7.119999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>10.00000000000007</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L189" t="n">
         <v>7.885000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>7.119999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>12.82051282051284</v>
+        <v>-3.703703703703972</v>
       </c>
       <c r="L190" t="n">
         <v>7.886</v>
@@ -9969,7 +9991,7 @@
         <v>7.119999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>12.82051282051284</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L191" t="n">
         <v>7.885</v>
@@ -10020,7 +10042,7 @@
         <v>7.149999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>21.95121951219517</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L192" t="n">
         <v>7.883999999999999</v>
@@ -10071,7 +10093,7 @@
         <v>7.149999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>21.95121951219517</v>
+        <v>85.71428571428599</v>
       </c>
       <c r="L193" t="n">
         <v>7.893999999999998</v>
@@ -10122,7 +10144,7 @@
         <v>7.149999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>21.95121951219517</v>
+        <v>100</v>
       </c>
       <c r="L194" t="n">
         <v>7.905999999999997</v>
@@ -10173,7 +10195,7 @@
         <v>7.18</v>
       </c>
       <c r="K195" t="n">
-        <v>9.523809523809554</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L195" t="n">
         <v>7.915999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>7.21</v>
       </c>
       <c r="K196" t="n">
-        <v>20.93023255813952</v>
+        <v>68.42105263157875</v>
       </c>
       <c r="L196" t="n">
         <v>7.928999999999998</v>
@@ -10275,7 +10297,7 @@
         <v>7.25</v>
       </c>
       <c r="K197" t="n">
-        <v>27.6595744680851</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L197" t="n">
         <v>7.945999999999998</v>
@@ -10326,7 +10348,7 @@
         <v>7.32</v>
       </c>
       <c r="K198" t="n">
-        <v>30.61224489795925</v>
+        <v>69.9999999999999</v>
       </c>
       <c r="L198" t="n">
         <v>7.962999999999997</v>
@@ -10377,7 +10399,7 @@
         <v>7.4</v>
       </c>
       <c r="K199" t="n">
-        <v>12.28070175438601</v>
+        <v>21.42857142857152</v>
       </c>
       <c r="L199" t="n">
         <v>7.968999999999997</v>
@@ -10428,7 +10450,7 @@
         <v>7.41</v>
       </c>
       <c r="K200" t="n">
-        <v>10.34482758620698</v>
+        <v>17.24137931034502</v>
       </c>
       <c r="L200" t="n">
         <v>7.973999999999998</v>
@@ -10479,7 +10501,7 @@
         <v>7.41</v>
       </c>
       <c r="K201" t="n">
-        <v>7.142857142857154</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L201" t="n">
         <v>7.978999999999999</v>
@@ -10530,7 +10552,7 @@
         <v>7.41</v>
       </c>
       <c r="K202" t="n">
-        <v>1.886792452830315</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L202" t="n">
         <v>7.981</v>
@@ -10581,7 +10603,7 @@
         <v>7.469999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>37.49999999999979</v>
+        <v>24.99999999999979</v>
       </c>
       <c r="L203" t="n">
         <v>7.989</v>
@@ -10632,7 +10654,7 @@
         <v>7.469999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>43.47826086956515</v>
+        <v>37.93103448275853</v>
       </c>
       <c r="L204" t="n">
         <v>7.997000000000002</v>
@@ -10683,7 +10705,7 @@
         <v>7.48</v>
       </c>
       <c r="K205" t="n">
-        <v>47.82608695652179</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L205" t="n">
         <v>8.009</v>
@@ -10734,7 +10756,7 @@
         <v>7.49</v>
       </c>
       <c r="K206" t="n">
-        <v>48.93617021276599</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L206" t="n">
         <v>8.019000000000002</v>
@@ -10785,7 +10807,7 @@
         <v>7.540000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>34.61538461538447</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L207" t="n">
         <v>8.020000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>7.550000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>21.73913043478249</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L208" t="n">
         <v>8.013000000000002</v>
@@ -10887,7 +10909,7 @@
         <v>7.550000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>16.27906976744187</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L209" t="n">
         <v>8.014000000000003</v>
@@ -10938,7 +10960,7 @@
         <v>7.65</v>
       </c>
       <c r="K210" t="n">
-        <v>-5.660377358490433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>8.006000000000004</v>
@@ -10989,7 +11011,7 @@
         <v>7.65</v>
       </c>
       <c r="K211" t="n">
-        <v>-5.660377358490433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>7.998000000000003</v>
@@ -11040,7 +11062,7 @@
         <v>7.68</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.660377358490611</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L212" t="n">
         <v>7.993000000000002</v>
@@ -11091,7 +11113,7 @@
         <v>7.68</v>
       </c>
       <c r="K213" t="n">
-        <v>-5.660377358490611</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L213" t="n">
         <v>7.982000000000002</v>
@@ -11142,7 +11164,7 @@
         <v>7.68</v>
       </c>
       <c r="K214" t="n">
-        <v>-5.660377358490611</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L214" t="n">
         <v>7.971000000000004</v>
@@ -11193,7 +11215,7 @@
         <v>7.74</v>
       </c>
       <c r="K215" t="n">
-        <v>10.71428571428579</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L215" t="n">
         <v>7.965000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>7.82</v>
       </c>
       <c r="K216" t="n">
-        <v>-8.196721311475375</v>
+        <v>-35.71428571428567</v>
       </c>
       <c r="L216" t="n">
         <v>7.950000000000003</v>
@@ -11295,7 +11317,7 @@
         <v>7.83</v>
       </c>
       <c r="K217" t="n">
-        <v>-17.24137931034477</v>
+        <v>-35.71428571428567</v>
       </c>
       <c r="L217" t="n">
         <v>7.939000000000003</v>
@@ -11346,7 +11368,7 @@
         <v>7.890000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-40.35087719298251</v>
+        <v>-47.05882352941182</v>
       </c>
       <c r="L218" t="n">
         <v>7.923000000000004</v>
@@ -11397,7 +11419,7 @@
         <v>7.91</v>
       </c>
       <c r="K219" t="n">
-        <v>-33.33333333333333</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L219" t="n">
         <v>7.905000000000004</v>
@@ -11448,7 +11470,7 @@
         <v>7.94</v>
       </c>
       <c r="K220" t="n">
-        <v>-35.84905660377365</v>
+        <v>-37.93103448275873</v>
       </c>
       <c r="L220" t="n">
         <v>7.894000000000004</v>
@@ -11499,7 +11521,7 @@
         <v>7.970000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-28.57142857142857</v>
+        <v>-37.9310344827583</v>
       </c>
       <c r="L221" t="n">
         <v>7.886000000000005</v>
@@ -11550,7 +11572,7 @@
         <v>7.970000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-28.57142857142857</v>
+        <v>-37.9310344827583</v>
       </c>
       <c r="L222" t="n">
         <v>7.875000000000003</v>
@@ -11601,7 +11623,7 @@
         <v>8.08</v>
       </c>
       <c r="K223" t="n">
-        <v>-18.03278688524577</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>7.875000000000003</v>
@@ -11652,7 +11674,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-14.28571428571406</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L224" t="n">
         <v>7.877000000000004</v>
@@ -11703,7 +11725,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-16.12903225806458</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L225" t="n">
         <v>7.873000000000005</v>
@@ -11754,7 +11776,7 @@
         <v>8.220000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>-31.50684931506846</v>
+        <v>-17.94871794871791</v>
       </c>
       <c r="L226" t="n">
         <v>7.865000000000005</v>
@@ -11805,7 +11827,7 @@
         <v>8.220000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>-26.47058823529402</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="L227" t="n">
         <v>7.858000000000004</v>
@@ -11856,7 +11878,7 @@
         <v>8.230000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>-26.47058823529402</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>7.856000000000003</v>
@@ -11907,7 +11929,7 @@
         <v>8.240000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>-24.63768115942023</v>
+        <v>13.33333333333328</v>
       </c>
       <c r="L229" t="n">
         <v>7.857000000000002</v>
@@ -11958,7 +11980,7 @@
         <v>8.270000000000003</v>
       </c>
       <c r="K230" t="n">
-        <v>-6.451612903225783</v>
+        <v>13.33333333333324</v>
       </c>
       <c r="L230" t="n">
         <v>7.864000000000002</v>
@@ -12009,7 +12031,7 @@
         <v>8.290000000000003</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.375000000000043</v>
+        <v>6.249999999999827</v>
       </c>
       <c r="L231" t="n">
         <v>7.866000000000002</v>
@@ -12060,7 +12082,7 @@
         <v>8.310000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>-17.4603174603173</v>
+        <v>-47.82608695652104</v>
       </c>
       <c r="L232" t="n">
         <v>7.866000000000002</v>
@@ -12111,7 +12133,7 @@
         <v>8.310000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>-17.4603174603173</v>
+        <v>-61.90476190476161</v>
       </c>
       <c r="L233" t="n">
         <v>7.855000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>8.310000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>-17.4603174603173</v>
+        <v>-61.90476190476161</v>
       </c>
       <c r="L234" t="n">
         <v>7.842000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>8.320000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-27.58620689655166</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>7.83</v>
@@ -12264,7 +12286,7 @@
         <v>8.330000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>-17.64705882352933</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L236" t="n">
         <v>7.829000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>8.340000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>-17.64705882352944</v>
+        <v>-9.090909090909605</v>
       </c>
       <c r="L237" t="n">
         <v>7.827000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>8.340000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>-6.66666666666668</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L238" t="n">
         <v>7.826000000000002</v>
@@ -12417,7 +12439,7 @@
         <v>8.350000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.54545454545462</v>
+        <v>-75.00000000000055</v>
       </c>
       <c r="L239" t="n">
         <v>7.823000000000002</v>
@@ -12468,7 +12490,7 @@
         <v>8.360000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L240" t="n">
         <v>7.816000000000003</v>
@@ -12519,7 +12541,7 @@
         <v>8.420000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>-19.99999999999992</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L241" t="n">
         <v>7.805000000000002</v>
@@ -12570,7 +12592,7 @@
         <v>8.430000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>-21.7391304347826</v>
+        <v>-83.33333333333309</v>
       </c>
       <c r="L242" t="n">
         <v>7.795000000000002</v>
@@ -12621,7 +12643,7 @@
         <v>8.430000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>-59.99999999999945</v>
+        <v>-83.33333333333309</v>
       </c>
       <c r="L243" t="n">
         <v>7.785000000000002</v>
@@ -12672,7 +12694,7 @@
         <v>8.470000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-51.35135135135131</v>
+        <v>-46.66666666666674</v>
       </c>
       <c r="L244" t="n">
         <v>7.779000000000002</v>
@@ -12723,7 +12745,7 @@
         <v>8.510000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>-56.09756097560984</v>
+        <v>-55.55555555555593</v>
       </c>
       <c r="L245" t="n">
         <v>7.768000000000002</v>
@@ -12774,7 +12796,7 @@
         <v>8.520000000000003</v>
       </c>
       <c r="K246" t="n">
-        <v>-33.33333333333314</v>
+        <v>-44.44444444444406</v>
       </c>
       <c r="L246" t="n">
         <v>7.759000000000003</v>
@@ -12825,7 +12847,7 @@
         <v>8.540000000000003</v>
       </c>
       <c r="K247" t="n">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="L247" t="n">
         <v>7.749000000000002</v>
@@ -12876,7 +12898,7 @@
         <v>8.540000000000003</v>
       </c>
       <c r="K248" t="n">
-        <v>-35.48387096774198</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L248" t="n">
         <v>7.739000000000002</v>
@@ -12927,7 +12949,7 @@
         <v>8.550000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>-41.93548387096764</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L249" t="n">
         <v>7.729000000000002</v>
@@ -12978,7 +13000,7 @@
         <v>8.670000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>-70.00000000000031</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L250" t="n">
         <v>7.708000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>8.680000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>-69.23076923076934</v>
+        <v>-60.00000000000021</v>
       </c>
       <c r="L251" t="n">
         <v>7.692</v>
@@ -13080,7 +13102,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>-70.00000000000031</v>
+        <v>-64.28571428571473</v>
       </c>
       <c r="L252" t="n">
         <v>7.674000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>8.75</v>
       </c>
       <c r="K253" t="n">
-        <v>-72.72727272727316</v>
+        <v>-92.85714285714359</v>
       </c>
       <c r="L253" t="n">
         <v>7.652000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>8.77</v>
       </c>
       <c r="K254" t="n">
-        <v>-65.21739130434835</v>
+        <v>-76.92307692307759</v>
       </c>
       <c r="L254" t="n">
         <v>7.628</v>
@@ -13233,7 +13255,7 @@
         <v>8.870000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>-38.18181818181825</v>
+        <v>-31.42857142857171</v>
       </c>
       <c r="L255" t="n">
         <v>7.618</v>
@@ -13284,7 +13306,7 @@
         <v>8.970000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>-46.87500000000006</v>
+        <v>-44.18604651162802</v>
       </c>
       <c r="L256" t="n">
         <v>7.597</v>
@@ -13335,7 +13357,7 @@
         <v>8.980000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>-46.87500000000006</v>
+        <v>-45.45454545454555</v>
       </c>
       <c r="L257" t="n">
         <v>7.577000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>9.120000000000003</v>
       </c>
       <c r="K258" t="n">
-        <v>-20.51282051282043</v>
+        <v>-8.771929824561369</v>
       </c>
       <c r="L258" t="n">
         <v>7.571000000000002</v>
@@ -13437,7 +13459,7 @@
         <v>9.120000000000003</v>
       </c>
       <c r="K259" t="n">
-        <v>-19.48051948051942</v>
+        <v>15.55555555555558</v>
       </c>
       <c r="L259" t="n">
         <v>7.566000000000003</v>
@@ -13488,7 +13510,7 @@
         <v>9.210000000000004</v>
       </c>
       <c r="K260" t="n">
-        <v>-27.05882352941177</v>
+        <v>-1.886792452830305</v>
       </c>
       <c r="L260" t="n">
         <v>7.564000000000003</v>
@@ -13539,7 +13561,7 @@
         <v>9.340000000000005</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.347826086956509</v>
+        <v>23.8095238095237</v>
       </c>
       <c r="L261" t="n">
         <v>7.576000000000002</v>
@@ -13590,7 +13612,7 @@
         <v>9.450000000000005</v>
       </c>
       <c r="K262" t="n">
-        <v>7.843137254901958</v>
+        <v>42.85714285714255</v>
       </c>
       <c r="L262" t="n">
         <v>7.602000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>9.460000000000004</v>
       </c>
       <c r="K263" t="n">
-        <v>6.79611650485439</v>
+        <v>39.13043478260849</v>
       </c>
       <c r="L263" t="n">
         <v>7.631000000000002</v>
@@ -13692,7 +13714,7 @@
         <v>9.470000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>2.000000000000043</v>
+        <v>26.66666666666655</v>
       </c>
       <c r="L264" t="n">
         <v>7.657000000000002</v>
@@ -13743,7 +13765,7 @@
         <v>9.480000000000004</v>
       </c>
       <c r="K265" t="n">
-        <v>5.1546391752577</v>
+        <v>49.0196078431371</v>
       </c>
       <c r="L265" t="n">
         <v>7.672000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>9.490000000000006</v>
       </c>
       <c r="K266" t="n">
-        <v>5.1546391752577</v>
+        <v>52.94117647058798</v>
       </c>
       <c r="L266" t="n">
         <v>7.698000000000002</v>
@@ -13845,7 +13867,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K267" t="n">
-        <v>6.249999999999931</v>
+        <v>31.57894736842049</v>
       </c>
       <c r="L267" t="n">
         <v>7.724000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>9.610000000000007</v>
       </c>
       <c r="K268" t="n">
-        <v>-4.672897196261649</v>
+        <v>2.040816326530553</v>
       </c>
       <c r="L268" t="n">
         <v>7.725</v>
@@ -13947,7 +13969,7 @@
         <v>9.610000000000007</v>
       </c>
       <c r="K269" t="n">
-        <v>-3.773584905660366</v>
+        <v>25</v>
       </c>
       <c r="L269" t="n">
         <v>7.725999999999999</v>
@@ -13998,7 +14020,7 @@
         <v>9.690000000000007</v>
       </c>
       <c r="K270" t="n">
-        <v>15.68627450980386</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L270" t="n">
         <v>7.743999999999998</v>
@@ -14049,7 +14071,7 @@
         <v>9.750000000000007</v>
       </c>
       <c r="K271" t="n">
-        <v>21.49532710280358</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>7.754999999999998</v>
@@ -14100,7 +14122,7 @@
         <v>9.880000000000006</v>
       </c>
       <c r="K272" t="n">
-        <v>11.11111111111105</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L272" t="n">
         <v>7.741999999999999</v>
@@ -14151,7 +14173,7 @@
         <v>9.880000000000006</v>
       </c>
       <c r="K273" t="n">
-        <v>15.04424778761053</v>
+        <v>-26.82926829268288</v>
       </c>
       <c r="L273" t="n">
         <v>7.729999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>9.880000000000006</v>
       </c>
       <c r="K274" t="n">
-        <v>13.51351351351347</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L274" t="n">
         <v>7.718999999999999</v>
@@ -14253,7 +14275,7 @@
         <v>9.880000000000006</v>
       </c>
       <c r="K275" t="n">
-        <v>4.950495049504908</v>
+        <v>-28.20512820512824</v>
       </c>
       <c r="L275" t="n">
         <v>7.708999999999999</v>
@@ -14304,7 +14326,7 @@
         <v>9.890000000000006</v>
       </c>
       <c r="K276" t="n">
-        <v>15.21739130434783</v>
+        <v>-28.20512820512815</v>
       </c>
       <c r="L276" t="n">
         <v>7.696999999999998</v>
@@ -14355,7 +14377,7 @@
         <v>9.890000000000006</v>
       </c>
       <c r="K277" t="n">
-        <v>16.48351648351646</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>7.685999999999998</v>
@@ -14406,7 +14428,7 @@
         <v>9.990000000000006</v>
       </c>
       <c r="K278" t="n">
-        <v>12.64367816091944</v>
+        <v>26.31578947368419</v>
       </c>
       <c r="L278" t="n">
         <v>7.696</v>
@@ -14457,7 +14479,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>13.63636363636351</v>
+        <v>9.677419354838543</v>
       </c>
       <c r="L279" t="n">
         <v>7.706999999999999</v>
@@ -14508,7 +14530,7 @@
         <v>10.09000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>13.63636363636363</v>
+        <v>-35.29411764705905</v>
       </c>
       <c r="L280" t="n">
         <v>7.701000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>10.11</v>
       </c>
       <c r="K281" t="n">
-        <v>-3.896103896103931</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L281" t="n">
         <v>7.687</v>
@@ -14610,7 +14632,7 @@
         <v>10.12</v>
       </c>
       <c r="K282" t="n">
-        <v>-22.38805970149246</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L282" t="n">
         <v>7.685</v>
@@ -14661,7 +14683,7 @@
         <v>10.17000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>-12.67605633802813</v>
+        <v>10.34482758620701</v>
       </c>
       <c r="L283" t="n">
         <v>7.688000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>10.24000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>-19.48051948051949</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L284" t="n">
         <v>7.684</v>
@@ -14763,7 +14785,7 @@
         <v>10.24000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>-18.42105263157887</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L285" t="n">
         <v>7.68</v>
@@ -14814,7 +14836,7 @@
         <v>10.27000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>-15.38461538461538</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>7.68</v>
@@ -14865,7 +14887,7 @@
         <v>10.27000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>-14.28571428571422</v>
+        <v>-35.71428571428545</v>
       </c>
       <c r="L287" t="n">
         <v>7.68</v>
@@ -14916,7 +14938,7 @@
         <v>10.28000000000001</v>
       </c>
       <c r="K288" t="n">
-        <v>-1.492537313432804</v>
+        <v>-42.85714285714241</v>
       </c>
       <c r="L288" t="n">
         <v>7.669</v>
@@ -14967,7 +14989,7 @@
         <v>10.28000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>-1.492537313432804</v>
+        <v>-15.78947368421008</v>
       </c>
       <c r="L289" t="n">
         <v>7.657000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>10.31000000000001</v>
       </c>
       <c r="K290" t="n">
-        <v>-19.35483870967746</v>
+        <v>-19.99999999999991</v>
       </c>
       <c r="L290" t="n">
         <v>7.651000000000002</v>
@@ -15069,7 +15091,7 @@
         <v>10.31000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>-32.14285714285717</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L291" t="n">
         <v>7.647000000000003</v>
@@ -15120,7 +15142,7 @@
         <v>10.33000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>-15.55555555555564</v>
+        <v>-62.50000000000028</v>
       </c>
       <c r="L292" t="n">
         <v>7.642000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>10.34000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>-13.04347826086946</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L293" t="n">
         <v>7.633000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>10.35000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>-14.89361702127658</v>
+        <v>-27.27272727272676</v>
       </c>
       <c r="L294" t="n">
         <v>7.630000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>10.36000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>-12.49999999999982</v>
+        <v>-55.55555555555325</v>
       </c>
       <c r="L295" t="n">
         <v>7.628000000000002</v>
@@ -15324,7 +15346,7 @@
         <v>10.36000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>-10.63829787234029</v>
+        <v>-55.55555555555325</v>
       </c>
       <c r="L296" t="n">
         <v>7.623000000000002</v>
@@ -15375,7 +15397,7 @@
         <v>10.36000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>-10.63829787234029</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L297" t="n">
         <v>7.618000000000002</v>
@@ -15426,7 +15448,7 @@
         <v>10.36000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>-40.5405405405399</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L298" t="n">
         <v>7.614000000000002</v>
@@ -15477,7 +15499,7 @@
         <v>10.55000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>5.454545454545458</v>
+        <v>74.99999999999871</v>
       </c>
       <c r="L299" t="n">
         <v>7.629</v>
@@ -15528,7 +15550,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-4.918032786885103</v>
+        <v>7.692307692307675</v>
       </c>
       <c r="L300" t="n">
         <v>7.632000000000001</v>
@@ -15579,7 +15601,7 @@
         <v>10.71000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>15.78947368421048</v>
       </c>
       <c r="L301" t="n">
         <v>7.636</v>
@@ -15630,7 +15652,7 @@
         <v>10.72000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>3.333333333333235</v>
+        <v>15.78947368421032</v>
       </c>
       <c r="L302" t="n">
         <v>7.643000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>10.73000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>-7.142857142857098</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L303" t="n">
         <v>7.648000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>10.81000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>19.29824561403501</v>
+        <v>28.88888888888891</v>
       </c>
       <c r="L304" t="n">
         <v>7.662000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>10.87000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>26.98412698412687</v>
+        <v>37.25490196078436</v>
       </c>
       <c r="L305" t="n">
         <v>7.681</v>
@@ -15834,7 +15856,7 @@
         <v>10.87000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>23.33333333333323</v>
+        <v>37.25490196078436</v>
       </c>
       <c r="L306" t="n">
         <v>7.7</v>
@@ -15885,7 +15907,7 @@
         <v>10.87000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>23.33333333333323</v>
+        <v>37.25490196078436</v>
       </c>
       <c r="L307" t="n">
         <v>7.718999999999999</v>
@@ -15936,7 +15958,7 @@
         <v>10.91000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>30.15873015873004</v>
+        <v>11.11111111111119</v>
       </c>
       <c r="L308" t="n">
         <v>7.742</v>
@@ -15987,7 +16009,7 @@
         <v>10.91000000000001</v>
       </c>
       <c r="K309" t="n">
-        <v>30.15873015873004</v>
+        <v>90.47619047619139</v>
       </c>
       <c r="L309" t="n">
         <v>7.746</v>
@@ -16038,7 +16060,7 @@
         <v>10.92000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>37.70491803278674</v>
+        <v>90.47619047619139</v>
       </c>
       <c r="L310" t="n">
         <v>7.766</v>
@@ -16089,7 +16111,7 @@
         <v>10.93000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>35.48387096774184</v>
+        <v>80.95238095238196</v>
       </c>
       <c r="L311" t="n">
         <v>7.784000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>10.97000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>31.25</v>
+        <v>58.33333333333401</v>
       </c>
       <c r="L312" t="n">
         <v>7.797</v>
@@ -16191,7 +16213,7 @@
         <v>10.97000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>30.15873015873013</v>
+        <v>37.50000000000055</v>
       </c>
       <c r="L313" t="n">
         <v>7.811</v>
@@ -16242,7 +16264,7 @@
         <v>10.97000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>32.2580645161292</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>7.817</v>
@@ -16293,7 +16315,7 @@
         <v>11.04000000000001</v>
       </c>
       <c r="K315" t="n">
-        <v>17.64705882352953</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L315" t="n">
         <v>7.81</v>
@@ -16344,7 +16366,7 @@
         <v>11.09000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>9.589041095890369</v>
+        <v>-54.54545454545487</v>
       </c>
       <c r="L316" t="n">
         <v>7.798</v>
@@ -16395,7 +16417,7 @@
         <v>11.19000000000001</v>
       </c>
       <c r="K317" t="n">
-        <v>20.48192771084341</v>
+        <v>-21.4285714285712</v>
       </c>
       <c r="L317" t="n">
         <v>7.796000000000001</v>
@@ -16446,7 +16468,7 @@
         <v>11.27000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>9.890109890109892</v>
+        <v>-38.88888888888867</v>
       </c>
       <c r="L318" t="n">
         <v>7.782000000000001</v>
@@ -16497,7 +16519,7 @@
         <v>11.28000000000001</v>
       </c>
       <c r="K319" t="n">
-        <v>-15.06849315068488</v>
+        <v>-44.44444444444409</v>
       </c>
       <c r="L319" t="n">
         <v>7.767</v>
@@ -16548,7 +16570,7 @@
         <v>11.28000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>6.896551724137957</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L320" t="n">
         <v>7.751</v>
@@ -16599,7 +16621,7 @@
         <v>11.28000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>5.263157894736899</v>
+        <v>-35.4838709677415</v>
       </c>
       <c r="L321" t="n">
         <v>7.736</v>
@@ -16650,7 +16672,7 @@
         <v>11.29000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>5.263157894736899</v>
+        <v>-31.24999999999969</v>
       </c>
       <c r="L322" t="n">
         <v>7.726000000000001</v>
@@ -16701,7 +16723,7 @@
         <v>11.33000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>13.33333333333335</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L323" t="n">
         <v>7.720000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>11.36000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>-5.454545454545492</v>
+        <v>-6.250000000000069</v>
       </c>
       <c r="L324" t="n">
         <v>7.711</v>
@@ -16803,7 +16825,7 @@
         <v>11.37000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>-15.99999999999996</v>
+        <v>14.28571428571415</v>
       </c>
       <c r="L325" t="n">
         <v>7.709999999999999</v>
@@ -16854,7 +16876,7 @@
         <v>11.38000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>-13.72549019607827</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L326" t="n">
         <v>7.715000000000001</v>
@@ -16905,7 +16927,7 @@
         <v>11.43000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>-3.571428571428481</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L327" t="n">
         <v>7.715000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>11.43000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>-11.53846153846139</v>
+        <v>59.99999999999905</v>
       </c>
       <c r="L328" t="n">
         <v>7.723000000000001</v>
@@ -17007,7 +17029,7 @@
         <v>11.43000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>-11.53846153846139</v>
+        <v>59.99999999999905</v>
       </c>
       <c r="L329" t="n">
         <v>7.732000000000001</v>
@@ -17058,7 +17080,7 @@
         <v>11.44000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>-11.53846153846139</v>
+        <v>62.49999999999903</v>
       </c>
       <c r="L330" t="n">
         <v>7.742000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>11.44000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>-9.803921568627352</v>
+        <v>59.99999999999905</v>
       </c>
       <c r="L331" t="n">
         <v>7.752000000000002</v>
@@ -17160,7 +17182,7 @@
         <v>11.49000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.53846153846139</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>7.756000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>-13.20754716981113</v>
+        <v>14.28571428571474</v>
       </c>
       <c r="L333" t="n">
         <v>7.755000000000003</v>
@@ -17262,7 +17284,7 @@
         <v>11.53000000000001</v>
       </c>
       <c r="K334" t="n">
-        <v>-17.85714285714272</v>
+        <v>-12.49999999999986</v>
       </c>
       <c r="L334" t="n">
         <v>7.754000000000003</v>
@@ -17313,7 +17335,7 @@
         <v>11.54000000000001</v>
       </c>
       <c r="K335" t="n">
-        <v>-7.99999999999998</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L335" t="n">
         <v>7.751000000000003</v>
@@ -17364,7 +17386,7 @@
         <v>11.54000000000001</v>
       </c>
       <c r="K336" t="n">
-        <v>2.222222222222367</v>
+        <v>-81.81818181818343</v>
       </c>
       <c r="L336" t="n">
         <v>7.747000000000003</v>
@@ -17415,7 +17437,7 @@
         <v>11.55000000000001</v>
       </c>
       <c r="K337" t="n">
-        <v>-22.22222222222228</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L337" t="n">
         <v>7.739000000000003</v>
@@ -17466,7 +17488,7 @@
         <v>11.55000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L338" t="n">
         <v>7.731000000000003</v>
@@ -17517,7 +17539,7 @@
         <v>11.56000000000001</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-83.33333333333482</v>
       </c>
       <c r="L339" t="n">
         <v>7.722000000000003</v>
@@ -17568,7 +17590,7 @@
         <v>11.56000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>-83.33333333333482</v>
       </c>
       <c r="L340" t="n">
         <v>7.712000000000002</v>
@@ -17619,7 +17641,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>-12.5</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L341" t="n">
         <v>7.698000000000002</v>
@@ -17670,7 +17692,7 @@
         <v>11.62000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>-9.090909090909165</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L342" t="n">
         <v>7.691000000000003</v>
@@ -17721,7 +17743,7 @@
         <v>11.68000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>-2.857142857142799</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L343" t="n">
         <v>7.691000000000003</v>
@@ -17772,7 +17794,7 @@
         <v>11.68000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>6.250000000000173</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L344" t="n">
         <v>7.694000000000003</v>
@@ -17823,7 +17845,7 @@
         <v>11.71000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>-5.882352941176379</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L345" t="n">
         <v>7.695000000000003</v>
@@ -17874,7 +17896,7 @@
         <v>11.71000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.090909090909213</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>7.696000000000003</v>
@@ -17925,7 +17947,7 @@
         <v>11.74000000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>-16.12903225806452</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L347" t="n">
         <v>7.699000000000003</v>
@@ -17976,7 +17998,7 @@
         <v>11.75000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>-12.50000000000007</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L348" t="n">
         <v>7.703000000000003</v>
@@ -18027,7 +18049,7 @@
         <v>11.83000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>10.00000000000004</v>
+        <v>48.14814814814787</v>
       </c>
       <c r="L349" t="n">
         <v>7.716000000000003</v>
@@ -18078,7 +18100,7 @@
         <v>11.83000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>7.69230769230778</v>
+        <v>73.9130434782607</v>
       </c>
       <c r="L350" t="n">
         <v>7.729000000000002</v>
@@ -18129,7 +18151,7 @@
         <v>11.91000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>-10.63829787234041</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L351" t="n">
         <v>7.738000000000001</v>
@@ -18180,7 +18202,7 @@
         <v>11.96000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>10.63829787234041</v>
+        <v>21.42857142857134</v>
       </c>
       <c r="L352" t="n">
         <v>7.750000000000002</v>
@@ -18231,7 +18253,7 @@
         <v>12.05000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>-5.45454545454551</v>
+        <v>-8.108108108108192</v>
       </c>
       <c r="L353" t="n">
         <v>7.747000000000002</v>
@@ -18282,7 +18304,7 @@
         <v>12.15000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>16.12903225806448</v>
+        <v>22.72727272727267</v>
       </c>
       <c r="L354" t="n">
         <v>7.754</v>
@@ -18333,7 +18355,7 @@
         <v>12.16000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>16.12903225806448</v>
+        <v>20</v>
       </c>
       <c r="L355" t="n">
         <v>7.763000000000001</v>
@@ -18384,7 +18406,7 @@
         <v>12.19000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>19.99999999999997</v>
+        <v>20</v>
       </c>
       <c r="L356" t="n">
         <v>7.775000000000001</v>
@@ -18435,7 +18457,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>19.99999999999997</v>
+        <v>20</v>
       </c>
       <c r="L357" t="n">
         <v>7.785000000000001</v>
@@ -18486,7 +18508,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>19.99999999999997</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L358" t="n">
         <v>7.794000000000001</v>
@@ -18537,7 +18559,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>21.87499999999993</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L359" t="n">
         <v>7.795000000000002</v>
@@ -18588,7 +18610,7 @@
         <v>12.26000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>11.4285714285713</v>
+        <v>8.571428571428399</v>
       </c>
       <c r="L360" t="n">
         <v>7.790000000000001</v>
@@ -18639,7 +18661,7 @@
         <v>12.47000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>37.93103448275858</v>
+        <v>37.25490196078427</v>
       </c>
       <c r="L361" t="n">
         <v>7.814000000000002</v>
@@ -18690,7 +18712,7 @@
         <v>12.53000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>40.65934065934056</v>
+        <v>70.83333333333306</v>
       </c>
       <c r="L362" t="n">
         <v>7.839</v>
@@ -18741,7 +18763,7 @@
         <v>12.57000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>30.33707865168538</v>
+        <v>47.61904761904767</v>
       </c>
       <c r="L363" t="n">
         <v>7.869</v>
@@ -18792,7 +18814,7 @@
         <v>12.58000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>31.11111111111109</v>
+        <v>52.38095238095233</v>
       </c>
       <c r="L364" t="n">
         <v>7.890000000000001</v>
@@ -18843,7 +18865,7 @@
         <v>12.59000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>34.09090909090911</v>
+        <v>45.00000000000009</v>
       </c>
       <c r="L365" t="n">
         <v>7.911</v>
@@ -18894,7 +18916,7 @@
         <v>12.65000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>25.53191489361711</v>
+        <v>24.44444444444465</v>
       </c>
       <c r="L366" t="n">
         <v>7.922999999999999</v>
@@ -18945,7 +18967,7 @@
         <v>12.69</v>
       </c>
       <c r="K367" t="n">
-        <v>17.89473684210533</v>
+        <v>14.28571428571444</v>
       </c>
       <c r="L367" t="n">
         <v>7.93</v>
@@ -18996,7 +19018,7 @@
         <v>12.73</v>
       </c>
       <c r="K368" t="n">
-        <v>12.24489795918375</v>
+        <v>5.660377358490658</v>
       </c>
       <c r="L368" t="n">
         <v>7.933</v>
@@ -19047,7 +19069,7 @@
         <v>12.75</v>
       </c>
       <c r="K369" t="n">
-        <v>2.173913043478227</v>
+        <v>14.28571428571449</v>
       </c>
       <c r="L369" t="n">
         <v>7.934</v>
@@ -19098,7 +19120,7 @@
         <v>12.77</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-53.33333333333452</v>
       </c>
       <c r="L370" t="n">
         <v>7.939</v>
@@ -19149,7 +19171,7 @@
         <v>12.77</v>
       </c>
       <c r="K371" t="n">
-        <v>9.30232558139542</v>
+        <v>-91.66666666666815</v>
       </c>
       <c r="L371" t="n">
         <v>7.923</v>
@@ -19200,7 +19222,7 @@
         <v>12.79</v>
       </c>
       <c r="K372" t="n">
-        <v>1.204819277108416</v>
+        <v>-90.90909090909292</v>
       </c>
       <c r="L372" t="n">
         <v>7.899000000000001</v>
@@ -19251,7 +19273,7 @@
         <v>12.87</v>
       </c>
       <c r="K373" t="n">
-        <v>21.95121951219522</v>
+        <v>-44.82758620689719</v>
       </c>
       <c r="L373" t="n">
         <v>7.887</v>
@@ -19302,7 +19324,7 @@
         <v>12.93</v>
       </c>
       <c r="K374" t="n">
-        <v>2.564102564102637</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L374" t="n">
         <v>7.867999999999999</v>
@@ -19353,7 +19375,7 @@
         <v>12.93</v>
       </c>
       <c r="K375" t="n">
-        <v>3.896103896103949</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L375" t="n">
         <v>7.85</v>
@@ -19404,7 +19426,7 @@
         <v>12.93</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L376" t="n">
         <v>7.837999999999999</v>
@@ -19455,7 +19477,7 @@
         <v>12.93</v>
       </c>
       <c r="K377" t="n">
-        <v>-1.36986301369861</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L377" t="n">
         <v>7.829999999999998</v>
@@ -19506,7 +19528,7 @@
         <v>13</v>
       </c>
       <c r="K378" t="n">
-        <v>7.499999999999994</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L378" t="n">
         <v>7.832999999999998</v>
@@ -19557,7 +19579,7 @@
         <v>13.01000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>8.641975308642042</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L379" t="n">
         <v>7.838999999999999</v>
@@ -19608,7 +19630,7 @@
         <v>13.03</v>
       </c>
       <c r="K380" t="n">
-        <v>19.48051948051963</v>
+        <v>38.46153846153809</v>
       </c>
       <c r="L380" t="n">
         <v>7.848999999999998</v>
@@ -19659,7 +19681,7 @@
         <v>13.12</v>
       </c>
       <c r="K381" t="n">
-        <v>-23.07692307692331</v>
+        <v>9.090909090909115</v>
       </c>
       <c r="L381" t="n">
         <v>7.849999999999997</v>
@@ -19710,7 +19732,7 @@
         <v>13.12</v>
       </c>
       <c r="K382" t="n">
-        <v>-35.59322033898312</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L382" t="n">
         <v>7.852999999999997</v>
@@ -19761,7 +19783,7 @@
         <v>13.2</v>
       </c>
       <c r="K383" t="n">
-        <v>-14.28571428571433</v>
+        <v>33.33333333333312</v>
       </c>
       <c r="L383" t="n">
         <v>7.855999999999997</v>
@@ -19812,7 +19834,7 @@
         <v>13.21</v>
       </c>
       <c r="K384" t="n">
-        <v>-14.28571428571433</v>
+        <v>35.71428571428545</v>
       </c>
       <c r="L384" t="n">
         <v>7.865999999999997</v>
@@ -19863,7 +19885,7 @@
         <v>13.22</v>
       </c>
       <c r="K385" t="n">
-        <v>-14.28571428571433</v>
+        <v>31.03448275862054</v>
       </c>
       <c r="L385" t="n">
         <v>7.874999999999997</v>
@@ -19914,7 +19936,7 @@
         <v>13.22</v>
       </c>
       <c r="K386" t="n">
-        <v>-5.263157894736899</v>
+        <v>31.03448275862054</v>
       </c>
       <c r="L386" t="n">
         <v>7.883999999999998</v>
@@ -19965,7 +19987,7 @@
         <v>13.22</v>
       </c>
       <c r="K387" t="n">
-        <v>1.886792452830151</v>
+        <v>9.090909090909275</v>
       </c>
       <c r="L387" t="n">
         <v>7.892999999999998</v>
@@ -20016,7 +20038,7 @@
         <v>13.3</v>
       </c>
       <c r="K388" t="n">
-        <v>-5.263157894736883</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="L388" t="n">
         <v>7.886999999999998</v>
@@ -20067,7 +20089,7 @@
         <v>13.3</v>
       </c>
       <c r="K389" t="n">
-        <v>-1.818181818181777</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>7.879999999999997</v>
@@ -20118,7 +20140,7 @@
         <v>13.37</v>
       </c>
       <c r="K390" t="n">
-        <v>13.33333333333331</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L390" t="n">
         <v>7.877999999999997</v>
@@ -20169,7 +20191,7 @@
         <v>13.38000000000001</v>
       </c>
       <c r="K391" t="n">
-        <v>11.47540983606542</v>
+        <v>23.07692307692279</v>
       </c>
       <c r="L391" t="n">
         <v>7.883999999999998</v>
@@ -20220,7 +20242,7 @@
         <v>13.44</v>
       </c>
       <c r="K392" t="n">
-        <v>4.615384615384639</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>7.883999999999998</v>
@@ -20271,7 +20293,7 @@
         <v>13.51000000000001</v>
       </c>
       <c r="K393" t="n">
-        <v>3.12500000000006</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L393" t="n">
         <v>7.882999999999998</v>
@@ -20322,7 +20344,7 @@
         <v>13.52</v>
       </c>
       <c r="K394" t="n">
-        <v>15.25423728813553</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>7.881999999999998</v>
@@ -20373,7 +20395,7 @@
         <v>13.53</v>
       </c>
       <c r="K395" t="n">
-        <v>13.33333333333331</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L395" t="n">
         <v>7.880999999999998</v>
@@ -20424,7 +20446,7 @@
         <v>13.6</v>
       </c>
       <c r="K396" t="n">
-        <v>1.4925373134328</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L396" t="n">
         <v>7.872999999999999</v>
@@ -20475,7 +20497,7 @@
         <v>13.6</v>
       </c>
       <c r="K397" t="n">
-        <v>1.4925373134328</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>7.864999999999999</v>
@@ -20526,7 +20548,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>2.941176470588297</v>
+        <v>21.05263157894735</v>
       </c>
       <c r="L398" t="n">
         <v>7.872999999999999</v>
@@ -20577,7 +20599,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>1.492537313432804</v>
+        <v>3.22580645161283</v>
       </c>
       <c r="L399" t="n">
         <v>7.880999999999998</v>
@@ -20628,7 +20650,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>-1.538461538461505</v>
+        <v>6.666666666666845</v>
       </c>
       <c r="L400" t="n">
         <v>7.881999999999998</v>
@@ -20679,7 +20701,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>7.883999999999998</v>
@@ -20730,7 +20752,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>14.28571428571428</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L402" t="n">
         <v>7.891999999999998</v>
@@ -20832,7 +20854,7 @@
         <v>13.71</v>
       </c>
       <c r="K404" t="n">
-        <v>-8.000000000000007</v>
+        <v>-11.11111111111139</v>
       </c>
       <c r="L404" t="n">
         <v>7.889999999999996</v>
@@ -20883,7 +20905,7 @@
         <v>13.71</v>
       </c>
       <c r="K405" t="n">
-        <v>-6.122448979591885</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L405" t="n">
         <v>7.887999999999995</v>
@@ -20934,7 +20956,7 @@
         <v>13.76000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-14.8148148148148</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>7.887999999999995</v>
@@ -20985,7 +21007,7 @@
         <v>13.83000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-1.639344262295044</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L407" t="n">
         <v>7.894999999999996</v>
@@ -21036,7 +21058,7 @@
         <v>13.85</v>
       </c>
       <c r="K408" t="n">
-        <v>16.36363636363632</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L408" t="n">
         <v>7.895999999999996</v>
@@ -21087,7 +21109,7 @@
         <v>13.86</v>
       </c>
       <c r="K409" t="n">
-        <v>17.85714285714278</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L409" t="n">
         <v>7.897999999999996</v>
@@ -21138,7 +21160,7 @@
         <v>13.88000000000001</v>
       </c>
       <c r="K410" t="n">
-        <v>9.803921568627386</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L410" t="n">
         <v>7.901999999999997</v>
@@ -21189,7 +21211,7 @@
         <v>13.91000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>16.9811320754718</v>
+        <v>30.43478260869548</v>
       </c>
       <c r="L411" t="n">
         <v>7.908999999999997</v>
@@ -21240,7 +21262,7 @@
         <v>13.91000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>31.91489361702119</v>
+        <v>30.43478260869548</v>
       </c>
       <c r="L412" t="n">
         <v>7.915999999999999</v>
@@ -21291,7 +21313,7 @@
         <v>13.94000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>25.58139534883699</v>
+        <v>56.52173913043419</v>
       </c>
       <c r="L413" t="n">
         <v>7.925999999999999</v>
@@ -21342,7 +21364,7 @@
         <v>13.94000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>23.80952380952363</v>
+        <v>56.52173913043419</v>
       </c>
       <c r="L414" t="n">
         <v>7.939</v>
@@ -21393,7 +21415,7 @@
         <v>14.04000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>41.17647058823498</v>
+        <v>99.99999999999936</v>
       </c>
       <c r="L415" t="n">
         <v>7.962000000000001</v>
@@ -21444,7 +21466,7 @@
         <v>14.04000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>63.6363636363633</v>
+        <v>99.99999999999916</v>
       </c>
       <c r="L416" t="n">
         <v>7.99</v>
@@ -21495,7 +21517,7 @@
         <v>14.04000000000001</v>
       </c>
       <c r="K417" t="n">
-        <v>63.6363636363633</v>
+        <v>99.99999999999906</v>
       </c>
       <c r="L417" t="n">
         <v>8.010999999999999</v>
@@ -21546,7 +21568,7 @@
         <v>14.11000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>30.23255813953455</v>
+        <v>43.99999999999946</v>
       </c>
       <c r="L418" t="n">
         <v>8.023</v>
@@ -21597,7 +21619,7 @@
         <v>14.29000000000001</v>
       </c>
       <c r="K419" t="n">
-        <v>50.81967213114738</v>
+        <v>65.85365853658517</v>
       </c>
       <c r="L419" t="n">
         <v>8.052000000000001</v>
@@ -21648,7 +21670,7 @@
         <v>14.46000000000001</v>
       </c>
       <c r="K420" t="n">
-        <v>61.53846153846136</v>
+        <v>74.54545454545448</v>
       </c>
       <c r="L420" t="n">
         <v>8.096</v>
@@ -21699,7 +21721,7 @@
         <v>14.56000000000001</v>
       </c>
       <c r="K421" t="n">
-        <v>65.90909090909072</v>
+        <v>78.46153846153838</v>
       </c>
       <c r="L421" t="n">
         <v>8.147</v>
@@ -21750,7 +21772,7 @@
         <v>14.64000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>68.74999999999983</v>
+        <v>79.99999999999994</v>
       </c>
       <c r="L422" t="n">
         <v>8.206</v>
@@ -21801,7 +21823,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>70.5882352941175</v>
+        <v>81.57894736842101</v>
       </c>
       <c r="L423" t="n">
         <v>8.267999999999997</v>
@@ -21852,7 +21874,7 @@
         <v>14.81000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>78.18181818181799</v>
+        <v>81.81818181818178</v>
       </c>
       <c r="L424" t="n">
         <v>8.340999999999998</v>
@@ -21903,7 +21925,7 @@
         <v>15.02000000000001</v>
       </c>
       <c r="K425" t="n">
-        <v>49.61832061068683</v>
+        <v>42.85714285714275</v>
       </c>
       <c r="L425" t="n">
         <v>8.382999999999997</v>
@@ -21954,7 +21976,7 @@
         <v>15.03000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>55.90551181102341</v>
+        <v>43.43434343434332</v>
       </c>
       <c r="L426" t="n">
         <v>8.425999999999998</v>
@@ -22005,7 +22027,7 @@
         <v>15.04000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>52.06611570247914</v>
+        <v>52.6881720430107</v>
       </c>
       <c r="L427" t="n">
         <v>8.467999999999998</v>
@@ -22056,7 +22078,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>52.45901639344249</v>
+        <v>43.58974358974351</v>
       </c>
       <c r="L428" t="n">
         <v>8.52</v>
@@ -22107,7 +22129,7 @@
         <v>15.09000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>52.84552845528441</v>
+        <v>30.15873015873004</v>
       </c>
       <c r="L429" t="n">
         <v>8.555999999999999</v>
@@ -22158,7 +22180,7 @@
         <v>15.16000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>54.68749999999989</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L430" t="n">
         <v>8.581999999999999</v>
@@ -22209,7 +22231,7 @@
         <v>15.44000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>62.09150326797377</v>
+        <v>44.99999999999989</v>
       </c>
       <c r="L431" t="n">
         <v>8.626000000000001</v>
@@ -22260,7 +22282,7 @@
         <v>15.49000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>56.96202531645571</v>
+        <v>31.6455696202532</v>
       </c>
       <c r="L432" t="n">
         <v>8.657</v>
@@ -22311,7 +22333,7 @@
         <v>15.62000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>59.52380952380953</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L433" t="n">
         <v>8.695</v>
@@ -22362,7 +22384,7 @@
         <v>15.71000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>51.4124293785311</v>
+        <v>56.52173913043506</v>
       </c>
       <c r="L434" t="n">
         <v>8.713000000000001</v>
@@ -22413,7 +22435,7 @@
         <v>15.74000000000001</v>
       </c>
       <c r="K435" t="n">
-        <v>45.88235294117656</v>
+        <v>49.29577464788771</v>
       </c>
       <c r="L435" t="n">
         <v>8.749000000000001</v>
@@ -22464,7 +22486,7 @@
         <v>15.88000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>34.78260869565221</v>
+        <v>26.19047619047632</v>
       </c>
       <c r="L436" t="n">
         <v>8.770000000000001</v>
@@ -22515,7 +22537,7 @@
         <v>16.08000000000001</v>
       </c>
       <c r="K437" t="n">
-        <v>41.1764705882353</v>
+        <v>38.61386138613864</v>
       </c>
       <c r="L437" t="n">
         <v>8.812000000000001</v>
@@ -22566,7 +22588,7 @@
         <v>16.16</v>
       </c>
       <c r="K438" t="n">
-        <v>48.29268292682934</v>
+        <v>42.05607476635527</v>
       </c>
       <c r="L438" t="n">
         <v>8.859000000000002</v>
@@ -22617,7 +22639,7 @@
         <v>16.17</v>
       </c>
       <c r="K439" t="n">
-        <v>42.55319148936179</v>
+        <v>36.63366336633682</v>
       </c>
       <c r="L439" t="n">
         <v>8.903000000000002</v>
@@ -22668,7 +22690,7 @@
         <v>16.31</v>
       </c>
       <c r="K440" t="n">
-        <v>26.48648648648658</v>
+        <v>-5.747126436781527</v>
       </c>
       <c r="L440" t="n">
         <v>8.926</v>
@@ -22719,7 +22741,7 @@
         <v>16.44</v>
       </c>
       <c r="K441" t="n">
-        <v>27.65957446808518</v>
+        <v>13.68421052631577</v>
       </c>
       <c r="L441" t="n">
         <v>8.934000000000001</v>
@@ -22770,7 +22792,7 @@
         <v>16.54</v>
       </c>
       <c r="K442" t="n">
-        <v>17.89473684210533</v>
+        <v>-10.86956521739135</v>
       </c>
       <c r="L442" t="n">
         <v>8.937000000000001</v>
@@ -22821,7 +22843,7 @@
         <v>16.55</v>
       </c>
       <c r="K443" t="n">
-        <v>14.59459459459466</v>
+        <v>-2.380952380952356</v>
       </c>
       <c r="L443" t="n">
         <v>8.926</v>
@@ -22872,7 +22894,7 @@
         <v>16.56</v>
       </c>
       <c r="K444" t="n">
-        <v>8.571428571428651</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>8.923</v>
@@ -22923,7 +22945,7 @@
         <v>16.59</v>
       </c>
       <c r="K445" t="n">
-        <v>21.01910828025494</v>
+        <v>15.49295774647901</v>
       </c>
       <c r="L445" t="n">
         <v>8.92</v>
@@ -22974,7 +22996,7 @@
         <v>16.81999999999999</v>
       </c>
       <c r="K446" t="n">
-        <v>5.027932960893988</v>
+        <v>-43.24324324324375</v>
       </c>
       <c r="L446" t="n">
         <v>8.907999999999999</v>
@@ -23025,7 +23047,7 @@
         <v>17.02999999999999</v>
       </c>
       <c r="K447" t="n">
-        <v>15.57788944723631</v>
+        <v>-21.8390804597703</v>
       </c>
       <c r="L447" t="n">
         <v>8.897</v>
@@ -23076,7 +23098,7 @@
         <v>17.04999999999999</v>
       </c>
       <c r="K448" t="n">
-        <v>13.13131313131322</v>
+        <v>-22.72727272727286</v>
       </c>
       <c r="L448" t="n">
         <v>8.875999999999999</v>
@@ -23127,7 +23149,7 @@
         <v>17.04999999999999</v>
       </c>
       <c r="K449" t="n">
-        <v>12.24489795918378</v>
+        <v>-8.10810810810827</v>
       </c>
       <c r="L449" t="n">
         <v>8.855999999999998</v>
@@ -23178,7 +23200,7 @@
         <v>17.26999999999999</v>
       </c>
       <c r="K450" t="n">
-        <v>18.48341232227497</v>
+        <v>3.614457831325262</v>
       </c>
       <c r="L450" t="n">
         <v>8.872</v>
@@ -23229,7 +23251,7 @@
         <v>17.27999999999999</v>
       </c>
       <c r="K451" t="n">
-        <v>5.434782608695675</v>
+        <v>16.21621621621622</v>
       </c>
       <c r="L451" t="n">
         <v>8.873999999999999</v>
@@ -23280,7 +23302,7 @@
         <v>17.31999999999999</v>
       </c>
       <c r="K452" t="n">
-        <v>10.38251366120224</v>
+        <v>22.07792207792218</v>
       </c>
       <c r="L452" t="n">
         <v>8.890000000000001</v>
@@ -23331,7 +23353,7 @@
         <v>17.41999999999999</v>
       </c>
       <c r="K453" t="n">
-        <v>-2.222222222222189</v>
+        <v>9.302325581395362</v>
       </c>
       <c r="L453" t="n">
         <v>8.897</v>
@@ -23382,7 +23404,7 @@
         <v>17.45</v>
       </c>
       <c r="K454" t="n">
-        <v>4.597701149425319</v>
+        <v>16.27906976744194</v>
       </c>
       <c r="L454" t="n">
         <v>8.907999999999999</v>
@@ -23433,7 +23455,7 @@
         <v>17.48</v>
       </c>
       <c r="K455" t="n">
-        <v>4.597701149425315</v>
+        <v>51.5151515151512</v>
       </c>
       <c r="L455" t="n">
         <v>8.919</v>

--- a/BackTest/2019-10-24 BackTest MIX.xlsx
+++ b/BackTest/2019-10-24 BackTest MIX.xlsx
@@ -9131,14 +9131,20 @@
         <v>7.877000000000003</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>7.7</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9166,14 +9172,20 @@
         <v>7.871000000000003</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>7.58</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +9213,20 @@
         <v>7.864000000000003</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>7.57</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +9254,20 @@
         <v>7.856333333333337</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>7.54</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9271,14 +9295,20 @@
         <v>7.849000000000004</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9306,14 +9336,20 @@
         <v>7.843833333333337</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>7.52</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9341,14 +9377,20 @@
         <v>7.836500000000004</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>7.62</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9376,14 +9418,20 @@
         <v>7.828333333333337</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>7.52</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9466,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9505,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9481,18 +9537,18 @@
         <v>7.808666666666669</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K260" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="L260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9520,20 +9576,16 @@
         <v>7.803833333333335</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K261" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M261" t="n">
@@ -9563,20 +9615,16 @@
         <v>7.800833333333335</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="K262" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M262" t="n">
@@ -9606,20 +9654,16 @@
         <v>7.796666666666669</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="K263" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M263" t="n">
@@ -9655,9 +9699,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,9 +9738,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,9 +9777,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9778,9 +9816,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,9 +9855,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9860,9 +9894,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,9 +9933,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,9 +9972,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,9 +10011,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,9 +10050,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10065,9 +10089,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10100,17 +10122,13 @@
         <v>7.745000000000003</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K275" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10143,17 +10161,13 @@
         <v>7.740833333333336</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K276" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10186,17 +10200,13 @@
         <v>7.736833333333337</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K277" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,17 +10239,13 @@
         <v>7.735500000000004</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K278" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,17 +10278,13 @@
         <v>7.73466666666667</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="K279" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10315,17 +10317,13 @@
         <v>7.732833333333336</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="K280" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10358,17 +10356,13 @@
         <v>7.730166666666671</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K281" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10401,17 +10395,13 @@
         <v>7.727333333333337</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K282" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10444,17 +10434,13 @@
         <v>7.723500000000003</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="K283" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10487,17 +10473,13 @@
         <v>7.71816666666667</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="K284" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10530,17 +10512,13 @@
         <v>7.712833333333337</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="K285" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,17 +10551,13 @@
         <v>7.710000000000004</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K286" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10616,17 +10590,13 @@
         <v>7.707166666666671</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K287" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10659,17 +10629,13 @@
         <v>7.704333333333338</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K288" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10702,17 +10668,13 @@
         <v>7.701333333333338</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="K289" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10745,17 +10707,13 @@
         <v>7.697333333333337</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K290" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10788,17 +10746,13 @@
         <v>7.693666666666672</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K291" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,17 +10785,13 @@
         <v>7.690000000000006</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K292" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,17 +10824,13 @@
         <v>7.686500000000006</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K293" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10917,17 +10863,13 @@
         <v>7.682833333333339</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K294" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10960,17 +10902,13 @@
         <v>7.679166666666673</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K295" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,17 +10941,13 @@
         <v>7.675666666666674</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K296" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11046,17 +10980,13 @@
         <v>7.672333333333341</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K297" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11089,17 +11019,13 @@
         <v>7.669000000000008</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K298" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,17 +11058,13 @@
         <v>7.669000000000008</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="K299" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11175,17 +11097,13 @@
         <v>7.666666666666673</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="K300" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,17 +11136,13 @@
         <v>7.665500000000007</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K301" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,17 +11175,13 @@
         <v>7.664666666666673</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K302" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,17 +11214,13 @@
         <v>7.663666666666673</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="K303" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11347,17 +11253,13 @@
         <v>7.66333333333334</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="K304" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11390,17 +11292,13 @@
         <v>7.664666666666673</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K305" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11433,17 +11331,13 @@
         <v>7.66583333333334</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K306" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11476,17 +11370,13 @@
         <v>7.667333333333341</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K307" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,17 +11409,13 @@
         <v>7.669500000000007</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="K308" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11562,17 +11448,13 @@
         <v>7.67183333333334</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K309" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11605,17 +11487,13 @@
         <v>7.676333333333341</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K310" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11654,9 +11532,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,9 +11571,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11736,9 +11610,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11777,9 +11649,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11818,9 +11688,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,9 +11727,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11900,9 +11766,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,9 +11805,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11982,9 +11844,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12023,9 +11883,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,17 +11916,13 @@
         <v>7.707500000000008</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K321" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12101,17 +11955,13 @@
         <v>7.705833333333342</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="K322" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12144,17 +11994,13 @@
         <v>7.705000000000008</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="K323" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12187,17 +12033,13 @@
         <v>7.703833333333341</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="K324" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12230,17 +12072,13 @@
         <v>7.703000000000008</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="K325" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12273,17 +12111,13 @@
         <v>7.702166666666676</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="K326" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,17 +12150,13 @@
         <v>7.702333333333343</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K327" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12359,17 +12189,13 @@
         <v>7.704333333333341</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="K328" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12402,17 +12228,13 @@
         <v>7.706333333333341</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="K329" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,17 +12267,13 @@
         <v>7.707166666666675</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="K330" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,9 +12312,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,9 +12351,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12576,9 +12390,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12617,9 +12429,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12658,9 +12468,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,17 +12501,13 @@
         <v>7.710500000000007</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K336" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12736,17 +12540,13 @@
         <v>7.711166666666672</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K337" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,17 +12579,13 @@
         <v>7.710166666666672</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K338" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12822,17 +12618,13 @@
         <v>7.70883333333334</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K339" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12865,17 +12657,13 @@
         <v>7.709000000000006</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K340" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,17 +12696,13 @@
         <v>7.708833333333339</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K341" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12951,17 +12735,13 @@
         <v>7.709166666666673</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K342" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12994,17 +12774,13 @@
         <v>7.709666666666673</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K343" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13037,17 +12813,13 @@
         <v>7.71133333333334</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K344" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13080,17 +12852,13 @@
         <v>7.712500000000007</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K345" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13123,17 +12891,13 @@
         <v>7.713166666666672</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K346" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13166,17 +12930,13 @@
         <v>7.714333333333339</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K347" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13209,17 +12969,13 @@
         <v>7.71583333333334</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="K348" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13252,17 +13008,13 @@
         <v>7.718666666666674</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="K349" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13295,17 +13047,13 @@
         <v>7.722000000000007</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="K350" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13338,17 +13086,13 @@
         <v>7.724000000000006</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K351" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13387,9 +13131,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13428,9 +13170,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13469,9 +13209,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13510,9 +13248,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,9 +13287,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13592,9 +13326,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13633,9 +13365,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,9 +13404,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13715,9 +13443,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13756,9 +13482,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13797,9 +13521,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13838,9 +13560,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13879,9 +13599,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13920,9 +13638,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13961,9 +13677,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14002,9 +13716,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14043,9 +13755,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14084,9 +13794,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14125,9 +13833,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14166,9 +13872,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14207,9 +13911,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14248,9 +13950,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14289,9 +13989,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14330,9 +14028,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14371,9 +14067,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14412,9 +14106,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14453,9 +14145,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,9 +14184,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14535,9 +14223,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14576,9 +14262,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14617,9 +14301,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,9 +14340,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14699,9 +14379,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,9 +14418,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14781,9 +14457,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14822,9 +14496,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,9 +14535,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14904,9 +14574,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,9 +14613,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14986,9 +14652,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15027,9 +14691,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15068,9 +14730,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,9 +14769,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,9 +14808,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15191,9 +14847,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15232,9 +14886,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15273,9 +14925,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,9 +14964,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15355,9 +15003,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,9 +15042,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15437,9 +15081,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15478,9 +15120,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,9 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,9 +15198,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15601,9 +15237,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15642,9 +15276,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15683,9 +15315,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,9 +15354,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15765,9 +15393,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15806,9 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,9 +15471,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15888,9 +15510,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15929,9 +15549,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,9 +15588,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,9 +15627,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16052,9 +15666,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16093,9 +15705,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16134,9 +15744,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16175,9 +15783,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16216,9 +15822,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,9 +15861,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16295,19 +15897,17 @@
         <v>0</v>
       </c>
       <c r="I423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>1.136534391534392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -16336,11 +15936,15 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16375,10 +15979,12 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
-      <c r="M425" t="n">
-        <v>1</v>
-      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -16441,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
@@ -16476,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
@@ -16511,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
@@ -16546,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
@@ -16581,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest MIX.xlsx
+++ b/BackTest/2019-10-24 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>3467809.6248</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3108097.2282</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3108097.2282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3108075.2282</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3229459.9336</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3230568.9207</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3230568.9207</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3231167.9207</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3230767.9207</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>3209029.8311</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>3209029.8311</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3250315.0345</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3253318.8972</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3253318.8972</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>3238156.2262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3347074.3055</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>3346088.8395</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>3325199.9265</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>3390394.0955</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3389460.2722</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3322501.7898</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3372501.7898</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3365091.796</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3397180.5495</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3772786.5397</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3772786.5397</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3940820.7649</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3966860.7649</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4473869.9749</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4522800.643175691</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4417615.504675691</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>4341087.081251383</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4321013.802051383</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4321024.802051383</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>4280011.266851383</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>4221465.474251383</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>4221465.474251383</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4031626.772751383</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>4060146.274551383</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>4044132.593251383</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4044142.593251383</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4043229.932951383</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4043229.932951383</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>4043280.962351383</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3880432.627051383</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3880478.546151383</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3867932.644251383</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3868036.620751383</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2991926.711051383</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2992082.629651383</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2990926.692151383</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2989726.692151383</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2989726.692151383</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2990693.105451383</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2990693.105451383</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2990693.105451383</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3016093.416351383</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2785671.171351383</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2785749.760451383</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2785749.760451383</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2785749.760451383</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2581312.885451383</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2581312.885451383</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2254962.012751383</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1616903.974851383</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1616983.236351383</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1616983.236351383</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1616983.236351383</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1535747.304951383</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1535747.304951383</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1730138.891751383</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1726937.259151383</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>672707.2954513829</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>672707.2954513829</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>672707.2954513829</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>672866.7107513829</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>663259.5229513829</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>663656.3467513829</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>683284.2339513829</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>606909.9684513829</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>586898.9684513829</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>553807.5127513829</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>553807.5127513829</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>547132.2506513828</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>460860.2058513828</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>331649.4760513828</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>62780.76185138285</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-113274.3886486171</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>200673.6172513828</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>314053.9369513828</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>660653.3220513829</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>929461.4467513828</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>928250.7930513828</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>896574.2930513828</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>733182.6060513827</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>202228.5257513827</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -10681,11 +10681,17 @@
         <v>-7866174.018148616</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>7.54</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10724,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10757,17 @@
         <v>-7461905.172448616</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>7.52</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,7 +10796,7 @@
         <v>-7461925.172448616</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>7.62</v>
@@ -10788,7 +10804,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -10819,7 +10835,7 @@
         <v>-7508706.148748616</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>7.52</v>
@@ -10858,7 +10874,7 @@
         <v>-7501170.959755544</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>7.51</v>
@@ -10897,7 +10913,7 @@
         <v>-7501170.959755544</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>7.65</v>
@@ -10936,7 +10952,7 @@
         <v>-7501220.834755544</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>7.65</v>
@@ -10975,7 +10991,7 @@
         <v>-7477220.834755544</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>7.56</v>
@@ -11014,7 +11030,7 @@
         <v>-7073762.484355544</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>7.69</v>
@@ -11053,7 +11069,7 @@
         <v>-7089155.206055543</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>7.8</v>
@@ -11092,7 +11108,7 @@
         <v>-7089197.236855543</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>7.79</v>
@@ -11131,7 +11147,7 @@
         <v>-7402287.550255544</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>7.78</v>
@@ -11170,9 +11186,11 @@
         <v>-7277915.648655543</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11207,9 +11225,11 @@
         <v>-7434663.845955543</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11244,9 +11264,11 @@
         <v>-7649542.225755543</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11281,9 +11303,11 @@
         <v>-7649542.225755543</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>7.66</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11318,9 +11342,11 @@
         <v>-7511162.806455543</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>7.66</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11355,9 +11381,11 @@
         <v>-7482662.806455543</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>7.74</v>
+      </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11392,9 +11420,11 @@
         <v>-7483662.586255543</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -11429,9 +11459,11 @@
         <v>-7483662.586255543</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>7.67</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -11466,9 +11498,11 @@
         <v>-7483662.586255543</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>7.67</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -11503,9 +11537,11 @@
         <v>-7483662.586255543</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>7.67</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -11540,9 +11576,11 @@
         <v>-7610684.884155543</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>7.67</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -11577,9 +11615,11 @@
         <v>-7610684.884155543</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>7.66</v>
+      </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -11614,9 +11654,11 @@
         <v>-7609725.827355542</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>7.66</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11651,9 +11693,11 @@
         <v>-7609714.827355542</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>7.76</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11688,9 +11732,11 @@
         <v>-7611729.111955542</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -11762,9 +11808,11 @@
         <v>-8434529.299855543</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>7.66</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -11799,9 +11847,11 @@
         <v>-8410882.196455544</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>7.65</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -11836,9 +11886,11 @@
         <v>-8688166.476455543</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>7.7</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -11873,9 +11925,11 @@
         <v>-8688166.476455543</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>7.63</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -11910,9 +11964,11 @@
         <v>-8687558.492255542</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>7.63</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -11947,7 +12003,7 @@
         <v>-8687558.492255542</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>7.66</v>
@@ -11986,7 +12042,7 @@
         <v>-8720937.563055543</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>7.66</v>
@@ -12025,7 +12081,7 @@
         <v>-8720937.563055543</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>7.65</v>
@@ -12064,7 +12120,7 @@
         <v>-8720947.563055543</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>7.65</v>
@@ -12103,7 +12159,7 @@
         <v>-8720947.563055543</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>7.62</v>
@@ -12142,9 +12198,11 @@
         <v>-8720967.575555542</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>7.62</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12179,9 +12237,11 @@
         <v>-8574495.104755543</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>7.6</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12216,7 +12276,7 @@
         <v>-8626829.790955544</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>7.61</v>
@@ -12255,7 +12315,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>7.6</v>
@@ -12294,7 +12354,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>7.61</v>
@@ -12333,7 +12393,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>7.61</v>
@@ -12372,7 +12432,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>7.61</v>
@@ -12411,7 +12471,7 @@
         <v>-8606823.142947722</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>7.61</v>
@@ -12450,7 +12510,7 @@
         <v>-8606873.017947722</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>7.8</v>
@@ -12489,7 +12549,7 @@
         <v>-8481337.707947722</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>7.65</v>
@@ -12528,7 +12588,7 @@
         <v>-8310342.728547722</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>7.66</v>
@@ -12567,7 +12627,7 @@
         <v>-8365913.598847722</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>7.67</v>
@@ -12606,7 +12666,7 @@
         <v>-8296163.017547722</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>7.66</v>
@@ -12645,7 +12705,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>7.74</v>
@@ -12684,7 +12744,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>7.8</v>
@@ -12723,7 +12783,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>7.8</v>
@@ -12762,7 +12822,7 @@
         <v>-8085945.174612526</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>7.8</v>
@@ -12838,11 +12898,9 @@
         <v>-8062955.731512526</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>7.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12877,11 +12935,9 @@
         <v>-8552011.825516608</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12916,11 +12972,9 @@
         <v>-8552011.975216608</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>7.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12955,11 +13009,9 @@
         <v>-8552011.975216608</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12994,11 +13046,9 @@
         <v>-8552011.975216608</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13033,7 +13083,7 @@
         <v>-8581504.506816609</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>7.8</v>
@@ -13072,7 +13122,7 @@
         <v>-8583002.949616609</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>7.73</v>
@@ -13111,7 +13161,7 @@
         <v>-8576576.214416608</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>7.68</v>
@@ -13150,7 +13200,7 @@
         <v>-8582996.214416608</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>7.78</v>
@@ -13189,7 +13239,7 @@
         <v>-8682996.214416608</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>7.7</v>
@@ -13228,7 +13278,7 @@
         <v>-8682996.214416608</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>7.69</v>
@@ -13267,7 +13317,7 @@
         <v>-8682996.214416608</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>7.69</v>
@@ -13306,7 +13356,7 @@
         <v>-8400432.982416607</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>7.69</v>
@@ -13345,7 +13395,7 @@
         <v>-8398538.408816608</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>7.7</v>
@@ -13384,7 +13434,7 @@
         <v>-8398560.408816608</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>7.74</v>
@@ -13423,7 +13473,7 @@
         <v>-8270156.682916608</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>7.71</v>
@@ -13462,7 +13512,7 @@
         <v>-8009193.750416608</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>7.72</v>
@@ -13501,9 +13551,11 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>7.73</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13538,9 +13590,11 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13575,9 +13629,11 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13612,9 +13668,11 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13649,7 +13707,7 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>7.79</v>
@@ -13688,7 +13746,7 @@
         <v>-7703627.977916608</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>7.79</v>
@@ -13727,7 +13785,7 @@
         <v>-7774663.294716608</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>7.74</v>
@@ -13766,7 +13824,7 @@
         <v>-7836412.830116608</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>7.73</v>
@@ -13805,7 +13863,7 @@
         <v>-8105502.396316608</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>7.7</v>
@@ -13844,7 +13902,7 @@
         <v>-8105502.396316608</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>7.69</v>
@@ -13883,7 +13941,7 @@
         <v>-7675446.239916609</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>7.69</v>
@@ -13922,7 +13980,7 @@
         <v>-7675446.239916609</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>7.7</v>
@@ -13961,7 +14019,7 @@
         <v>-7904931.456716608</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>7.7</v>
@@ -14000,7 +14058,7 @@
         <v>-7904931.456716608</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>7.69</v>
@@ -14039,7 +14097,7 @@
         <v>-8235504.751416609</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>7.69</v>
@@ -14078,7 +14136,7 @@
         <v>-8232369.751416609</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>7.65</v>
@@ -14117,7 +14175,7 @@
         <v>-8219433.140808588</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>7.67</v>
@@ -14156,7 +14214,7 @@
         <v>-8219433.140808588</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>7.73</v>
@@ -14195,7 +14253,7 @@
         <v>-8386786.712208588</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>7.73</v>
@@ -14234,7 +14292,7 @@
         <v>-8386786.712208588</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>7.7</v>
@@ -14273,7 +14331,7 @@
         <v>-8386386.712208588</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>7.7</v>
@@ -14312,7 +14370,7 @@
         <v>-8386330.712208588</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>7.73</v>
@@ -14351,7 +14409,7 @@
         <v>-8359963.538208588</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>7.74</v>
@@ -14390,7 +14448,7 @@
         <v>-8359963.538208588</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>7.82</v>
@@ -14429,7 +14487,7 @@
         <v>-8529963.538208589</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>7.82</v>
@@ -14468,7 +14526,7 @@
         <v>-8529598.435608588</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>7.74</v>
@@ -14507,7 +14565,7 @@
         <v>-8839657.334408589</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>7.79</v>
@@ -14546,9 +14604,11 @@
         <v>-8839647.322408589</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>7.7</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14583,7 +14643,7 @@
         <v>-8909027.129808588</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>7.8</v>
@@ -14622,7 +14682,7 @@
         <v>-8659189.186308589</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>7.79</v>
@@ -14661,7 +14721,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>7.82</v>
@@ -15070,11 +15130,9 @@
         <v>-8094972.75140859</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -15109,11 +15167,9 @@
         <v>-8112301.26380859</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>7.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -15148,11 +15204,9 @@
         <v>-8112733.26380859</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>7.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15187,7 +15241,7 @@
         <v>-8112733.26380859</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>7.82</v>
@@ -15226,7 +15280,7 @@
         <v>-8119143.93220859</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>7.82</v>
@@ -15265,7 +15319,7 @@
         <v>-8098992.79010859</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>7.8</v>
@@ -15304,7 +15358,7 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>7.88</v>
@@ -15343,9 +15397,11 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15380,9 +15436,11 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15417,9 +15475,11 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15454,9 +15514,11 @@
         <v>-8436381.61650859</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15787,9 +15849,11 @@
         <v>-8484672.122708589</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15824,9 +15888,11 @@
         <v>-9165569.949308589</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15861,9 +15927,11 @@
         <v>-9165569.949308589</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15898,9 +15966,11 @@
         <v>-9165559.949308589</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15935,9 +16005,11 @@
         <v>-9217911.016708588</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15972,9 +16044,11 @@
         <v>-9306134.038408589</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>7.89</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -16009,9 +16083,11 @@
         <v>-9304533.987808589</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16046,9 +16122,11 @@
         <v>-9275358.00810859</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -16194,9 +16272,11 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16527,9 +16607,11 @@
         <v>-9927567.842108589</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16564,9 +16646,11 @@
         <v>-9864242.883808589</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -17489,16 +17573,18 @@
         <v>-1692699.386629021</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L492" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L492" t="n">
+        <v>1</v>
+      </c>
       <c r="M492" t="inlineStr"/>
     </row>
     <row r="493">
@@ -17524,11 +17610,15 @@
         <v>-2143336.318229022</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17557,11 +17647,15 @@
         <v>-3393487.712629022</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17590,11 +17684,15 @@
         <v>-4282318.684329022</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17623,11 +17721,15 @@
         <v>-3693853.538829022</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17660,7 +17762,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17689,11 +17795,15 @@
         <v>-3530689.283729021</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17722,11 +17832,15 @@
         <v>-3931973.601429021</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17755,11 +17869,15 @@
         <v>-3226771.200729021</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17788,14 +17906,16 @@
         <v>-3575163.145529022</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -17821,7 +17941,7 @@
         <v>-3983626.424729021</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17854,7 +17974,7 @@
         <v>-4935731.260929021</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17865,6 +17985,6 @@
       <c r="M503" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest MIX.xlsx
+++ b/BackTest/2019-10-24 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>3467809.6248</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3108097.2282</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3108097.2282</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3108075.2282</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3229459.9336</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3230568.9207</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3230568.9207</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3231167.9207</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3230767.9207</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>3209029.8311</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>3209029.8311</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3250315.0345</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3253318.8972</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3253318.8972</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>3238156.2262</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3347074.3055</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>3346088.8395</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>3325199.9265</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>3390394.0955</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3389460.2722</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3322501.7898</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3372501.7898</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3365091.796</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3397180.5495</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3772786.5397</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3772786.5397</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3940820.7649</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3966860.7649</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4473869.9749</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4522800.643175691</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4321013.802051383</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>4280011.266851383</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>4221465.474251383</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>4221465.474251383</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4031626.772751383</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>4060146.274551383</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>4044132.593251383</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4044142.593251383</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4043229.932951383</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4043229.932951383</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>4043280.962351383</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3880432.627051383</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3880478.546151383</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3867932.644251383</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3868036.620751383</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2991926.711051383</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2992082.629651383</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2990926.692151383</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2989726.692151383</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2989726.692151383</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2990693.105451383</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2990693.105451383</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2990693.105451383</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3016093.416351383</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2785671.171351383</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2785749.760451383</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2785749.760451383</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2785749.760451383</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2581312.885451383</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2581312.885451383</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2254962.012751383</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1616903.974851383</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1616983.236351383</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1616983.236351383</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1616983.236351383</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1535747.304951383</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1535747.304951383</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1730138.891751383</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1726937.259151383</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>672707.2954513829</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>672707.2954513829</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>672707.2954513829</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>672866.7107513829</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>663259.5229513829</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>663656.3467513829</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>683284.2339513829</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>606909.9684513829</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>586898.9684513829</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>553807.5127513829</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>553807.5127513829</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>547132.2506513828</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>460860.2058513828</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>331649.4760513828</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>62780.76185138285</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-113274.3886486171</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>200673.6172513828</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>314053.9369513828</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>660653.3220513829</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>928250.7930513828</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>896574.2930513828</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>733182.6060513827</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>202228.5257513827</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -10681,2653 +10681,2303 @@
         <v>-7866174.018148616</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>7.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C313" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D313" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E313" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F313" t="n">
+        <v>8645.1299</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-7857528.888248616</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C314" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D314" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>395623.7158</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-7461905.172448616</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C315" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E315" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F315" t="n">
+        <v>20</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-7461925.172448616</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C316" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D316" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F316" t="n">
+        <v>46780.9763</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-7508706.148748616</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C317" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F317" t="n">
+        <v>7535.188993071895</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-7501170.959755544</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="C318" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D318" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E318" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F318" t="n">
+        <v>56401.1897</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-7501170.959755544</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C319" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D319" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F319" t="n">
+        <v>49.875</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-7501220.834755544</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C320" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D320" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F320" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-7477220.834755544</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C321" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D321" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E321" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F321" t="n">
+        <v>403458.3504</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-7073762.484355544</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C322" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D322" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E322" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F322" t="n">
+        <v>15392.7217</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-7089155.206055543</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C323" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D323" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E323" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F323" t="n">
+        <v>42.0308</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-7089197.236855543</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C324" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D324" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E324" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F324" t="n">
+        <v>313090.3134</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-7402287.550255544</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C325" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E325" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F325" t="n">
+        <v>124371.9016</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-7277915.648655543</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C326" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D326" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E326" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F326" t="n">
+        <v>156748.1973</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-7434663.845955543</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C327" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D327" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E327" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F327" t="n">
+        <v>214878.3798</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-7649542.225755543</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C328" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E328" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F328" t="n">
+        <v>178039.7364</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-7649542.225755543</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C329" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D329" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="E329" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="F329" t="n">
+        <v>138379.4193</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-7511162.806455543</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D330" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E330" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F330" t="n">
+        <v>28500</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-7482662.806455543</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C331" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D331" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E331" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F331" t="n">
+        <v>999.7798</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-7483662.586255543</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C332" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D332" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F332" t="n">
+        <v>119200.1303</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-7483662.586255543</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C333" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D333" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E333" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F333" t="n">
+        <v>146854.4081</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-7483662.586255543</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C334" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D334" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E334" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F334" t="n">
+        <v>125849.9348</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-7483662.586255543</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C335" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D335" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E335" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F335" t="n">
+        <v>127022.2979</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-7610684.884155543</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C336" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D336" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E336" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F336" t="n">
+        <v>676009.2678</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-7610684.884155543</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C337" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D337" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E337" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F337" t="n">
+        <v>959.0568</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-7609725.827355542</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C338" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D338" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E338" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F338" t="n">
+        <v>11</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-7609714.827355542</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C339" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D339" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E339" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F339" t="n">
+        <v>2014.2846</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-7611729.111955542</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C340" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D340" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E340" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F340" t="n">
+        <v>496716.1215</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-8108445.233455542</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C341" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D341" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E341" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F341" t="n">
+        <v>326084.0664</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-8434529.299855543</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="C342" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D342" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E342" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F342" t="n">
+        <v>23647.1034</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-8410882.196455544</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="C343" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D343" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E343" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F343" t="n">
+        <v>277284.28</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-8688166.476455543</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C344" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D344" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E344" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F344" t="n">
+        <v>60438.1384</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-8688166.476455543</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C345" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D345" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E345" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F345" t="n">
+        <v>607.9842</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-8687558.492255542</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C346" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D346" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E346" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F346" t="n">
+        <v>18176.9656</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-8687558.492255542</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C347" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D347" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E347" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F347" t="n">
+        <v>33379.0708</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-8720937.563055543</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C348" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D348" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E348" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F348" t="n">
+        <v>17258.6059</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-8720937.563055543</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C349" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D349" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F349" t="n">
+        <v>10</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-8720947.563055543</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C350" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D350" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E350" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F350" t="n">
+        <v>20.2131</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-8720947.563055543</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C351" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D351" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E351" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F351" t="n">
+        <v>20.0125</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-8720967.575555542</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C352" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D352" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E352" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F352" t="n">
+        <v>146472.4708</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-8574495.104755543</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C353" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D353" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E353" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F353" t="n">
+        <v>52334.6862</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-8626829.790955544</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C354" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D354" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E354" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F354" t="n">
+        <v>18710.3942</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-8608119.396755543</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C355" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D355" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E355" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F355" t="n">
+        <v>181289.6058</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-8608119.396755543</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C356" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D356" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E356" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F356" t="n">
+        <v>5048.7909</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-8608119.396755543</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C357" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D357" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E357" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F357" t="n">
+        <v>67115.20389999999</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-8608119.396755543</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="J357" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C358" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D358" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F358" t="n">
+        <v>1296.253807820513</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-8606823.142947722</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="J358" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C359" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D359" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E359" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F359" t="n">
+        <v>49.875</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-8606873.017947722</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C360" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D360" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E360" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F360" t="n">
+        <v>125535.31</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-8481337.707947722</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C361" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E361" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F361" t="n">
+        <v>170994.9794</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-8310342.728547722</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C362" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D362" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F362" t="n">
+        <v>55570.8703</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-8365913.598847722</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="C363" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D363" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="E363" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F363" t="n">
+        <v>69750.58130000001</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-8296163.017547722</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C364" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D364" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E364" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F364" t="n">
+        <v>207661.923</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-8088501.094547722</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F365" t="n">
+        <v>157.8205</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-8088501.094547722</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C366" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D366" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F366" t="n">
+        <v>106999.8503</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-8088501.094547722</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="C367" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D367" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E367" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2555.919935195589</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-8085945.174612526</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="C368" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D368" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E368" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F368" t="n">
+        <v>75264.48979591837</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-8085945.174612526</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="C369" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D369" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E369" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F369" t="n">
+        <v>22989.4431</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-8062955.731512526</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="C370" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D370" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E370" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F370" t="n">
+        <v>489056.0940040816</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-8552011.825516608</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C371" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D371" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E371" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.1497</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-8552011.975216608</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C372" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D372" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E372" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F372" t="n">
+        <v>41668.8461</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-8552011.975216608</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="C373" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D373" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E373" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F373" t="n">
+        <v>358223.9389</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-8552011.975216608</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C374" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D374" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E374" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F374" t="n">
+        <v>29492.5316</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-8581504.506816609</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C375" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D375" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E375" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1498.4428</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-8583002.949616609</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C376" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D376" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E376" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F376" t="n">
+        <v>6426.7352</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-8576576.214416608</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="J376" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C377" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D377" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E377" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F377" t="n">
+        <v>6420</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-8582996.214416608</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J377" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C378" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D378" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E378" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F378" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-8682996.214416608</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C379" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D379" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E379" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F379" t="n">
+        <v>242016.5136</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-8682996.214416608</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="J379" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C380" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D380" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E380" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F380" t="n">
+        <v>333495.4659</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-8682996.214416608</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="J380" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="K380" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C313" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D313" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E313" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F313" t="n">
-        <v>8645.1299</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-7857528.888248616</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C314" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D314" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E314" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F314" t="n">
-        <v>395623.7158</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-7461905.172448616</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C315" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D315" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E315" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F315" t="n">
-        <v>20</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-7461925.172448616</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C316" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D316" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E316" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F316" t="n">
-        <v>46780.9763</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-7508706.148748616</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C317" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D317" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E317" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F317" t="n">
-        <v>7535.188993071895</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-7501170.959755544</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="C318" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D318" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E318" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F318" t="n">
-        <v>56401.1897</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-7501170.959755544</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C319" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D319" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E319" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F319" t="n">
-        <v>49.875</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-7501220.834755544</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C320" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D320" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="E320" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F320" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-7477220.834755544</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C321" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D321" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E321" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F321" t="n">
-        <v>403458.3504</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-7073762.484355544</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C322" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D322" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E322" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F322" t="n">
-        <v>15392.7217</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-7089155.206055543</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C323" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="D323" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="E323" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F323" t="n">
-        <v>42.0308</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-7089197.236855543</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C324" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D324" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="E324" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F324" t="n">
-        <v>313090.3134</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-7402287.550255544</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C325" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="D325" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E325" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F325" t="n">
-        <v>124371.9016</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-7277915.648655543</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C326" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D326" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="E326" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F326" t="n">
-        <v>156748.1973</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-7434663.845955543</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C327" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D327" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E327" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F327" t="n">
-        <v>214878.3798</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-7649542.225755543</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C328" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D328" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="E328" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F328" t="n">
-        <v>178039.7364</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-7649542.225755543</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="C329" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="D329" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="E329" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="F329" t="n">
-        <v>138379.4193</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-7511162.806455543</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C330" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D330" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E330" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F330" t="n">
-        <v>28500</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-7482662.806455543</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C331" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D331" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E331" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F331" t="n">
-        <v>999.7798</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-7483662.586255543</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C332" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D332" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E332" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F332" t="n">
-        <v>119200.1303</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-7483662.586255543</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C333" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D333" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E333" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F333" t="n">
-        <v>146854.4081</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-7483662.586255543</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C334" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D334" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E334" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F334" t="n">
-        <v>125849.9348</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-7483662.586255543</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C335" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D335" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="E335" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F335" t="n">
-        <v>127022.2979</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-7610684.884155543</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C336" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D336" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E336" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F336" t="n">
-        <v>676009.2678</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-7610684.884155543</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="C337" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="D337" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E337" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F337" t="n">
-        <v>959.0568</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-7609725.827355542</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="C338" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D338" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E338" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F338" t="n">
-        <v>11</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-7609714.827355542</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="C339" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="D339" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="E339" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="F339" t="n">
-        <v>2014.2846</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-7611729.111955542</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C340" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D340" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E340" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F340" t="n">
-        <v>496716.1215</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-8108445.233455542</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C341" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D341" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E341" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F341" t="n">
-        <v>326084.0664</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-8434529.299855543</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="C342" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D342" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E342" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F342" t="n">
-        <v>23647.1034</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-8410882.196455544</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="C343" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D343" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="E343" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F343" t="n">
-        <v>277284.28</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-8688166.476455543</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C344" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D344" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E344" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F344" t="n">
-        <v>60438.1384</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-8688166.476455543</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C345" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D345" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="E345" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F345" t="n">
-        <v>607.9842</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-8687558.492255542</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C346" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D346" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E346" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F346" t="n">
-        <v>18176.9656</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-8687558.492255542</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C347" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D347" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="E347" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F347" t="n">
-        <v>33379.0708</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-8720937.563055543</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="C348" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D348" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E348" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F348" t="n">
-        <v>17258.6059</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-8720937.563055543</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C349" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D349" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E349" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F349" t="n">
-        <v>10</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-8720947.563055543</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C350" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D350" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E350" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F350" t="n">
-        <v>20.2131</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-8720947.563055543</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C351" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D351" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E351" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F351" t="n">
-        <v>20.0125</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-8720967.575555542</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C352" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D352" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E352" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F352" t="n">
-        <v>146472.4708</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-8574495.104755543</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C353" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D353" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E353" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F353" t="n">
-        <v>52334.6862</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-8626829.790955544</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C354" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D354" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E354" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F354" t="n">
-        <v>18710.3942</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-8608119.396755543</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C355" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D355" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E355" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F355" t="n">
-        <v>181289.6058</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-8608119.396755543</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C356" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D356" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E356" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F356" t="n">
-        <v>5048.7909</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-8608119.396755543</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C357" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D357" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E357" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F357" t="n">
-        <v>67115.20389999999</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-8608119.396755543</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="C358" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D358" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E358" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="F358" t="n">
-        <v>1296.253807820513</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-8606823.142947722</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="C359" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D359" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E359" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F359" t="n">
-        <v>49.875</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-8606873.017947722</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="C360" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D360" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="E360" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F360" t="n">
-        <v>125535.31</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-8481337.707947722</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C361" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D361" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E361" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F361" t="n">
-        <v>170994.9794</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-8310342.728547722</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="C362" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D362" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="E362" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F362" t="n">
-        <v>55570.8703</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-8365913.598847722</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="C363" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="D363" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="E363" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="F363" t="n">
-        <v>69750.58130000001</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-8296163.017547722</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C364" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D364" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E364" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F364" t="n">
-        <v>207661.923</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-8088501.094547722</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C365" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D365" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E365" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F365" t="n">
-        <v>157.8205</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-8088501.094547722</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C366" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D366" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E366" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F366" t="n">
-        <v>106999.8503</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-8088501.094547722</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="C367" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D367" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E367" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="F367" t="n">
-        <v>2555.919935195589</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-8085945.174612526</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C368" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D368" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E368" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F368" t="n">
-        <v>75264.48979591837</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-8085945.174612526</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C369" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="D369" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E369" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F369" t="n">
-        <v>22989.4431</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-8062955.731512526</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C370" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D370" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E370" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="F370" t="n">
-        <v>489056.0940040816</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-8552011.825516608</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C371" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D371" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E371" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F371" t="n">
-        <v>0.1497</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-8552011.975216608</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C372" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D372" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E372" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F372" t="n">
-        <v>41668.8461</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-8552011.975216608</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="C373" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D373" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E373" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="F373" t="n">
-        <v>358223.9389</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-8552011.975216608</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C374" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="D374" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E374" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="F374" t="n">
-        <v>29492.5316</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-8581504.506816609</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="C375" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="D375" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="E375" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="F375" t="n">
-        <v>1498.4428</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-8583002.949616609</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C376" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="D376" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="E376" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F376" t="n">
-        <v>6426.7352</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-8576576.214416608</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C377" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D377" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E377" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F377" t="n">
-        <v>6420</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-8582996.214416608</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="C378" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D378" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="E378" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F378" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-8682996.214416608</v>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="C379" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D379" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="E379" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F379" t="n">
-        <v>242016.5136</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-8682996.214416608</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C380" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D380" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E380" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F380" t="n">
-        <v>333495.4659</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-8682996.214416608</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13361,7 +13011,9 @@
       <c r="I381" t="n">
         <v>7.69</v>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13400,7 +13052,9 @@
       <c r="I382" t="n">
         <v>7.7</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13439,7 +13093,9 @@
       <c r="I383" t="n">
         <v>7.74</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13478,7 +13134,9 @@
       <c r="I384" t="n">
         <v>7.71</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13517,7 +13175,9 @@
       <c r="I385" t="n">
         <v>7.72</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13556,7 +13216,9 @@
       <c r="I386" t="n">
         <v>7.73</v>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13595,7 +13257,9 @@
       <c r="I387" t="n">
         <v>7.78</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13634,7 +13298,9 @@
       <c r="I388" t="n">
         <v>7.78</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13673,7 +13339,9 @@
       <c r="I389" t="n">
         <v>7.78</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13712,7 +13380,9 @@
       <c r="I390" t="n">
         <v>7.79</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13751,7 +13421,9 @@
       <c r="I391" t="n">
         <v>7.79</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13790,7 +13462,9 @@
       <c r="I392" t="n">
         <v>7.74</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13829,7 +13503,9 @@
       <c r="I393" t="n">
         <v>7.73</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13868,7 +13544,9 @@
       <c r="I394" t="n">
         <v>7.7</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13907,7 +13585,9 @@
       <c r="I395" t="n">
         <v>7.69</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13946,7 +13626,9 @@
       <c r="I396" t="n">
         <v>7.69</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13985,7 +13667,9 @@
       <c r="I397" t="n">
         <v>7.7</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,7 +13708,9 @@
       <c r="I398" t="n">
         <v>7.7</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14063,7 +13749,9 @@
       <c r="I399" t="n">
         <v>7.69</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14102,7 +13790,9 @@
       <c r="I400" t="n">
         <v>7.69</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14141,7 +13831,9 @@
       <c r="I401" t="n">
         <v>7.65</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14180,7 +13872,9 @@
       <c r="I402" t="n">
         <v>7.67</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14219,7 +13913,9 @@
       <c r="I403" t="n">
         <v>7.73</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14258,7 +13954,9 @@
       <c r="I404" t="n">
         <v>7.73</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14297,7 +13995,9 @@
       <c r="I405" t="n">
         <v>7.7</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14336,7 +14036,9 @@
       <c r="I406" t="n">
         <v>7.7</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14375,7 +14077,9 @@
       <c r="I407" t="n">
         <v>7.73</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14414,7 +14118,9 @@
       <c r="I408" t="n">
         <v>7.74</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14453,7 +14159,9 @@
       <c r="I409" t="n">
         <v>7.82</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14492,7 +14200,9 @@
       <c r="I410" t="n">
         <v>7.82</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,7 +14241,9 @@
       <c r="I411" t="n">
         <v>7.74</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,7 +14282,9 @@
       <c r="I412" t="n">
         <v>7.79</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14609,7 +14323,9 @@
       <c r="I413" t="n">
         <v>7.7</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14648,7 +14364,9 @@
       <c r="I414" t="n">
         <v>7.8</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14687,7 +14405,9 @@
       <c r="I415" t="n">
         <v>7.79</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14726,7 +14446,9 @@
       <c r="I416" t="n">
         <v>7.82</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,10 +14482,14 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J417" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14797,10 +14523,14 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J418" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14834,10 +14564,14 @@
         <v>-8292369.911608589</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J419" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14871,10 +14605,14 @@
         <v>-8061790.444808589</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J420" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14911,7 +14649,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14948,7 +14688,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14985,7 +14727,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15022,7 +14766,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15059,7 +14805,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15096,7 +14844,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15133,7 +14883,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15170,7 +14922,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15207,7 +14961,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15241,12 +14997,12 @@
         <v>-8112733.26380859</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15280,12 +15036,12 @@
         <v>-8119143.93220859</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15319,12 +15075,12 @@
         <v>-8098992.79010859</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15358,12 +15114,12 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15397,12 +15153,12 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15436,12 +15192,12 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15475,12 +15231,12 @@
         <v>-8478478.19440859</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15514,12 +15270,12 @@
         <v>-8436381.61650859</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15556,7 +15312,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15593,7 +15351,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15630,7 +15390,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15667,7 +15429,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15704,7 +15468,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15741,7 +15507,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15778,7 +15546,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15815,7 +15585,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15849,12 +15621,12 @@
         <v>-8484672.122708589</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15888,12 +15660,12 @@
         <v>-9165569.949308589</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15927,12 +15699,12 @@
         <v>-9165569.949308589</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15966,12 +15738,12 @@
         <v>-9165559.949308589</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16005,12 +15777,12 @@
         <v>-9217911.016708588</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16044,12 +15816,12 @@
         <v>-9306134.038408589</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J451" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16083,12 +15855,12 @@
         <v>-9304533.987808589</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J452" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16122,12 +15894,12 @@
         <v>-9275358.00810859</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16164,7 +15936,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16201,7 +15975,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16238,7 +16014,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16272,12 +16050,12 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16314,7 +16092,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,7 +16131,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16388,7 +16170,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16425,7 +16209,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16459,10 +16245,14 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J462" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16496,10 +16286,14 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J463" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,10 +16327,14 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="J464" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16570,10 +16368,14 @@
         <v>-9929528.326708589</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="J465" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16612,7 +16414,9 @@
       <c r="I466" t="n">
         <v>7.83</v>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16651,7 +16455,9 @@
       <c r="I467" t="n">
         <v>7.9</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16685,10 +16491,14 @@
         <v>-9713857.768434944</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J468" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16722,10 +16532,14 @@
         <v>-9368969.663434943</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="J469" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16762,7 +16576,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16799,7 +16615,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16836,7 +16654,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16873,7 +16693,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16910,7 +16732,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16947,7 +16771,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16984,7 +16810,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17021,7 +16849,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,7 +16888,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17095,7 +16927,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17132,7 +16966,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17166,19 +17002,23 @@
         <v>-4247225.954998692</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>7.69</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
+        <v>1.10943433029909</v>
+      </c>
+      <c r="M481" t="n">
+        <v>1.116</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -17203,15 +17043,11 @@
         <v>-2871433.652095446</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17240,15 +17076,11 @@
         <v>-180203.4929240174</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17277,15 +17109,11 @@
         <v>-372893.4897645615</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17314,15 +17142,11 @@
         <v>-13327.92156456149</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17351,15 +17175,11 @@
         <v>-15347.87156456149</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17392,11 +17212,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17429,11 +17245,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17466,11 +17278,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17503,11 +17311,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17540,11 +17344,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17577,11 +17377,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17614,11 +17410,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17651,11 +17443,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17688,11 +17476,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17725,11 +17509,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17762,11 +17542,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17799,11 +17575,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17836,11 +17608,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17873,11 +17641,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17906,16 +17670,14 @@
         <v>-3575163.145529022</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -17941,7 +17703,7 @@
         <v>-3983626.424729021</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17974,7 +17736,7 @@
         <v>-4935731.260929021</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17985,6 +17747,6 @@
       <c r="M503" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest MIX.xlsx
+++ b/BackTest/2019-10-24 BackTest MIX.xlsx
@@ -1639,7 +1639,7 @@
         <v>4417615.504675691</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>4341087.081251383</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4321024.802051383</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -12001,10 +12001,14 @@
         <v>-8574495.104755543</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J352" t="n">
+        <v>7.6</v>
+      </c>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12034,11 +12038,19 @@
         <v>-8626829.790955544</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="J353" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12079,19 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J354" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,10 +12120,14 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="J355" t="n">
+        <v>7.61</v>
+      </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
@@ -12133,11 +12157,19 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="J356" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12174,7 +12206,11 @@
       <c r="J357" t="n">
         <v>7.61</v>
       </c>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +12247,7 @@
       <c r="J358" t="n">
         <v>7.61</v>
       </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12244,9 +12276,11 @@
         <v>-8606873.017947722</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J359" t="n">
         <v>7.61</v>
       </c>
@@ -12283,11 +12317,19 @@
         <v>-8481337.707947722</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="J360" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12316,10 +12358,14 @@
         <v>-8310342.728547722</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="J361" t="n">
+        <v>7.66</v>
+      </c>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
@@ -12349,11 +12395,19 @@
         <v>-8365913.598847722</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="J362" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12382,11 +12436,19 @@
         <v>-8296163.017547722</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="J363" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12415,11 +12477,19 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="J364" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12448,11 +12518,19 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J365" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12481,11 +12559,19 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J366" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12514,11 +12600,19 @@
         <v>-8085945.174612526</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J367" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12547,11 +12641,19 @@
         <v>-8085945.174612526</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="J368" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12583,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12616,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12649,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12682,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12715,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12748,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12781,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12811,15 +12955,17 @@
         <v>-8576576.214416608</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>7.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="K376" t="inlineStr"/>
+        <v>7.66</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12848,17 +12994,15 @@
         <v>-8582996.214416608</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>7.68</v>
+        <v>7.66</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L377" t="n">
@@ -12893,11 +13037,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>7.68</v>
+        <v>7.66</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -12928,15 +13072,17 @@
         <v>-8682996.214416608</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>7.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
+        <v>7.66</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12971,11 +13117,11 @@
         <v>7.69</v>
       </c>
       <c r="J380" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -13012,7 +13158,7 @@
         <v>7.69</v>
       </c>
       <c r="J381" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13053,7 +13199,7 @@
         <v>7.7</v>
       </c>
       <c r="J382" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13088,13 +13234,11 @@
         <v>-8398560.408816608</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>7.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13129,13 +13273,11 @@
         <v>-8270156.682916608</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13176,7 +13318,7 @@
         <v>7.72</v>
       </c>
       <c r="J385" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13217,7 +13359,7 @@
         <v>7.73</v>
       </c>
       <c r="J386" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13252,13 +13394,11 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13293,13 +13433,11 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13334,13 +13472,11 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13375,13 +13511,11 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>7.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13416,13 +13550,11 @@
         <v>-7703627.977916608</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>7.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13457,13 +13589,11 @@
         <v>-7774663.294716608</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>7.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13498,13 +13628,11 @@
         <v>-7836412.830116608</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13545,7 +13673,7 @@
         <v>7.7</v>
       </c>
       <c r="J394" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13586,7 +13714,7 @@
         <v>7.69</v>
       </c>
       <c r="J395" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13627,7 +13755,7 @@
         <v>7.69</v>
       </c>
       <c r="J396" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13668,7 +13796,7 @@
         <v>7.7</v>
       </c>
       <c r="J397" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13709,7 +13837,7 @@
         <v>7.7</v>
       </c>
       <c r="J398" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13750,7 +13878,7 @@
         <v>7.69</v>
       </c>
       <c r="J399" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13791,7 +13919,7 @@
         <v>7.69</v>
       </c>
       <c r="J400" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13832,7 +13960,7 @@
         <v>7.65</v>
       </c>
       <c r="J401" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13873,7 +14001,7 @@
         <v>7.67</v>
       </c>
       <c r="J402" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13914,7 +14042,7 @@
         <v>7.73</v>
       </c>
       <c r="J403" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -13955,7 +14083,7 @@
         <v>7.73</v>
       </c>
       <c r="J404" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -13996,7 +14124,7 @@
         <v>7.7</v>
       </c>
       <c r="J405" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14037,7 +14165,7 @@
         <v>7.7</v>
       </c>
       <c r="J406" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14078,7 +14206,7 @@
         <v>7.73</v>
       </c>
       <c r="J407" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14119,7 +14247,7 @@
         <v>7.74</v>
       </c>
       <c r="J408" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14160,7 +14288,7 @@
         <v>7.82</v>
       </c>
       <c r="J409" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14195,13 +14323,11 @@
         <v>-8529963.538208589</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14236,13 +14362,11 @@
         <v>-8529598.435608588</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>7.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14277,13 +14401,11 @@
         <v>-8839657.334408589</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>7.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14318,13 +14440,11 @@
         <v>-8839647.322408589</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14359,13 +14479,11 @@
         <v>-8909027.129808588</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14400,13 +14518,11 @@
         <v>-8659189.186308589</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>7.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14441,13 +14557,11 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14482,13 +14596,11 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14523,13 +14635,11 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14564,13 +14674,11 @@
         <v>-8292369.911608589</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14605,13 +14713,11 @@
         <v>-8061790.444808589</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14650,7 +14756,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14689,7 +14795,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14728,7 +14834,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14767,7 +14873,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14806,7 +14912,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14845,7 +14951,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14884,7 +14990,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14923,7 +15029,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14962,7 +15068,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15001,7 +15107,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15040,7 +15146,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15079,7 +15185,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15118,7 +15224,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15157,7 +15263,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15196,7 +15302,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15235,7 +15341,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15274,7 +15380,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15313,7 +15419,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15352,7 +15458,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15391,7 +15497,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15430,7 +15536,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15469,7 +15575,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15508,7 +15614,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15547,7 +15653,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15586,7 +15692,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15625,7 +15731,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15664,7 +15770,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15703,7 +15809,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15742,7 +15848,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15781,7 +15887,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15820,7 +15926,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15859,7 +15965,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15898,7 +16004,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15937,7 +16043,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15976,7 +16082,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16015,7 +16121,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16054,7 +16160,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16093,7 +16199,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16132,7 +16238,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16171,7 +16277,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16210,7 +16316,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16245,13 +16351,11 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16286,13 +16390,11 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16327,13 +16429,11 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16368,13 +16468,11 @@
         <v>-9929528.326708589</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16409,13 +16507,11 @@
         <v>-9927567.842108589</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16450,13 +16546,11 @@
         <v>-9864242.883808589</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16491,13 +16585,11 @@
         <v>-9713857.768434944</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16532,13 +16624,11 @@
         <v>-9368969.663434943</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>7.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16577,7 +16667,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16616,7 +16706,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16655,7 +16745,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16694,7 +16784,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16733,7 +16823,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16772,7 +16862,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16811,7 +16901,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16850,7 +16940,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16889,7 +16979,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16928,7 +17018,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16967,7 +17057,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17002,353 +17092,413 @@
         <v>-4247225.954998692</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="C482" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="D482" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="E482" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="F482" t="n">
+        <v>1375792.302903245</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-2871433.652095446</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="C483" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D483" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E483" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="F483" t="n">
+        <v>2691230.159171429</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-180203.4929240174</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="C484" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="D484" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E484" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="F484" t="n">
+        <v>192689.9968405441</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-372893.4897645615</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C485" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="D485" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E485" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="F485" t="n">
+        <v>359565.5682</v>
+      </c>
+      <c r="G485" t="n">
+        <v>-13327.92156456149</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="C486" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="D486" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="E486" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="F486" t="n">
+        <v>2019.95</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-15347.87156456149</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="C487" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="D487" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E487" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="F487" t="n">
+        <v>232326.3485</v>
+      </c>
+      <c r="G487" t="n">
+        <v>216978.4769354385</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="C488" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="D488" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E488" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F488" t="n">
+        <v>204327.749</v>
+      </c>
+      <c r="G488" t="n">
+        <v>421306.2259354385</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="C489" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D489" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E489" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F489" t="n">
+        <v>106352.1834</v>
+      </c>
+      <c r="G489" t="n">
+        <v>527658.4093354385</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L489" t="n">
+        <v>1</v>
+      </c>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C490" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D490" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E490" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1729468.818388027</v>
+      </c>
+      <c r="G490" t="n">
+        <v>2257127.227723465</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L490" t="n">
+        <v>1</v>
+      </c>
+      <c r="M490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="C491" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D491" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E491" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F491" t="n">
+        <v>4416350.4356</v>
+      </c>
+      <c r="G491" t="n">
+        <v>-2159223.207876535</v>
+      </c>
+      <c r="H491" t="n">
+        <v>2</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K491" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L481" t="n">
-        <v>1.10943433029909</v>
-      </c>
-      <c r="M481" t="n">
+      <c r="L491" t="n">
+        <v>1.154268929503917</v>
+      </c>
+      <c r="M491" t="n">
         <v>1.116</v>
       </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="C482" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="D482" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="E482" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="F482" t="n">
-        <v>1375792.302903245</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-2871433.652095446</v>
-      </c>
-      <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="C483" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="D483" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E483" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="F483" t="n">
-        <v>2691230.159171429</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-180203.4929240174</v>
-      </c>
-      <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="C484" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="D484" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="E484" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="F484" t="n">
-        <v>192689.9968405441</v>
-      </c>
-      <c r="G484" t="n">
-        <v>-372893.4897645615</v>
-      </c>
-      <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="C485" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="D485" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E485" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="F485" t="n">
-        <v>359565.5682</v>
-      </c>
-      <c r="G485" t="n">
-        <v>-13327.92156456149</v>
-      </c>
-      <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="C486" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="D486" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="E486" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="F486" t="n">
-        <v>2019.95</v>
-      </c>
-      <c r="G486" t="n">
-        <v>-15347.87156456149</v>
-      </c>
-      <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="C487" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="D487" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="E487" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="F487" t="n">
-        <v>232326.3485</v>
-      </c>
-      <c r="G487" t="n">
-        <v>216978.4769354385</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="C488" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="D488" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E488" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F488" t="n">
-        <v>204327.749</v>
-      </c>
-      <c r="G488" t="n">
-        <v>421306.2259354385</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
-      <c r="M488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="C489" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="D489" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="E489" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="F489" t="n">
-        <v>106352.1834</v>
-      </c>
-      <c r="G489" t="n">
-        <v>527658.4093354385</v>
-      </c>
-      <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="n">
-        <v>1</v>
-      </c>
-      <c r="M489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="C490" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D490" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E490" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F490" t="n">
-        <v>1729468.818388027</v>
-      </c>
-      <c r="G490" t="n">
-        <v>2257127.227723465</v>
-      </c>
-      <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="n">
-        <v>1</v>
-      </c>
-      <c r="M490" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="C491" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D491" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E491" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="F491" t="n">
-        <v>4416350.4356</v>
-      </c>
-      <c r="G491" t="n">
-        <v>-2159223.207876535</v>
-      </c>
-      <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="n">
-        <v>1</v>
-      </c>
-      <c r="M491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -17373,7 +17523,7 @@
         <v>-1692699.386629021</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17406,7 +17556,7 @@
         <v>-2143336.318229022</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17439,7 +17589,7 @@
         <v>-3393487.712629022</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17472,7 +17622,7 @@
         <v>-4282318.684329022</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17604,7 +17754,7 @@
         <v>-3931973.601429021</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17637,7 +17787,7 @@
         <v>-3226771.200729021</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17670,7 +17820,7 @@
         <v>-3575163.145529022</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17703,7 +17853,7 @@
         <v>-3983626.424729021</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17736,7 +17886,7 @@
         <v>-4935731.260929021</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
